--- a/services/limbless-app/static/resources/templates/library_prep/QUANTSEQ.xlsx
+++ b/services/limbless-app/static/resources/templates/library_prep/QUANTSEQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agynter/dev/limbless-app-dev/services/limbless-app/static/resources/templates/library_prep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cemmat-my.sharepoint.com/personal/hriegler_cemm_at/Documents/Documents/GitHub/limbless-app/services/limbless-app/static/resources/templates/library_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84E37E-DC61-E841-823B-F8596B3D28C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{FA84E37E-DC61-E841-823B-F8596B3D28C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D39BCE1-2A44-4AE1-BF12-B53CE9C35820}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="17520" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="162">
   <si>
     <t>RIN</t>
   </si>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>ul_pooling</t>
-  </si>
-  <si>
-    <t>Checklist 3’ mRNA-Seq V2 Library Pre Kit (Lexogen) Standard Input, columns</t>
   </si>
   <si>
     <t>FILL ALL OF THE CELLS IN THIS COLOR! IF LEFTOVERS WERE USED WRITE LEFTOVERS. ANSWER ALL FIELDS WITH THE RED BORDER IN ORDER TO HAVE THE RIGHT CHECKLIST.</t>
@@ -650,21 +647,12 @@
     <t>UMI Second Strand Synthesis Module for QuantSeq FWD (Illumina, Read 1)</t>
   </si>
   <si>
-    <t>Checklist 3’ mRNA-Seq V2 Library Pre Kit (Lexogen) Standard Input Columns</t>
-  </si>
-  <si>
     <t>Carina Suete</t>
   </si>
   <si>
-    <t>22.07.2024</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Volume for 12 samples</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>pool</t>
   </si>
   <si>
@@ -674,19 +662,28 @@
     <t>Put the Kitnumbers into the working sheet semicolon separated: If you didn’t use UMIs only one number is needed!</t>
   </si>
   <si>
-    <t xml:space="preserve">Low input: </t>
-  </si>
-  <si>
-    <t>Ultra Low:</t>
-  </si>
-  <si>
-    <t>put an _L behind the library prep kit number e.g. 191.96_L</t>
-  </si>
-  <si>
-    <t>put an _UL behind the library prep kit number e.g. 191.96_UL</t>
-  </si>
-  <si>
     <t>lib_conc_ng_ul</t>
+  </si>
+  <si>
+    <t>Mix 8.5 µL of cDNA with 4 µl of MM and 5 µL of index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library type for LIMS: </t>
+  </si>
+  <si>
+    <t>Quantseq_FWD_v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library type for LIMS with UMI: </t>
+  </si>
+  <si>
+    <t>Quantseq_FWD_v2_UMI</t>
+  </si>
+  <si>
+    <t>09.08.2024</t>
+  </si>
+  <si>
+    <t>Checklist 3’ mRNA-Seq V2 Library Pre Kit (Lexogen)</t>
   </si>
 </sst>
 </file>
@@ -696,7 +693,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +876,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -954,7 +959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1427,6 +1432,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1434,7 +1448,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1691,6 +1705,225 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1700,227 +1933,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1929,7 +1958,322 @@
     <cellStyle name="Stand. 2" xfId="2" xr:uid="{5A6D8027-83B3-4CFC-B764-1D9734900A5E}"/>
     <cellStyle name="Standard 2" xfId="3" xr:uid="{10535F53-4074-4448-B3FE-F945A31FECF9}"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="176">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1975,6 +2319,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1982,6 +2375,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
@@ -1989,6 +2431,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD60093"/>
         </patternFill>
       </fill>
@@ -1996,6 +2487,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF7D7D"/>
         </patternFill>
       </fill>
@@ -2003,6 +2543,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF99FF"/>
         </patternFill>
       </fill>
@@ -2010,6 +2599,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2017,6 +2655,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -2024,6 +2711,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2031,6 +2767,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF808000"/>
         </patternFill>
       </fill>
@@ -2038,6 +2823,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1AFF3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF7D7D"/>
         </patternFill>
       </fill>
@@ -2045,6 +2900,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2073,6 +2956,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD60093"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF808000"/>
         </patternFill>
       </fill>
@@ -2080,6 +2991,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD60093"/>
         </patternFill>
       </fill>
@@ -2101,6 +3047,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF808000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -2144,76 +3104,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF808000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD60093"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2434,6 +3324,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -2466,13 +3360,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2533,13 +3427,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>63500</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2600,13 +3494,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>279400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2674,7 +3568,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2739,9 +3633,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2808,7 +3702,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>63500</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2873,9 +3767,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>82550</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3612,7 +4506,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>53975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3871,13 +4765,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>349249</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>30163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4276,7 +5170,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>63500</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>273050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4336,13 +5230,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>317500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>101600</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4403,13 +5297,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>122</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4470,13 +5364,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>122</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4537,13 +5431,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
-          <xdr:row>122</xdr:row>
+          <xdr:colOff>82550</xdr:colOff>
+          <xdr:row>123</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4595,6 +5489,68 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="352425" cy="371475"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9249" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9249"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB31163E-32CA-402F-97FC-F72D0F8C8F2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -4901,35 +5857,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.5" style="94" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="94" customWidth="1"/>
-    <col min="5" max="7" width="13.5" style="94" customWidth="1"/>
-    <col min="8" max="10" width="12.5" style="94" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="94" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="94" customWidth="1"/>
-    <col min="13" max="14" width="12.5" style="94" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" style="94" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="95"/>
-    <col min="17" max="17" width="9.83203125" style="96" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" style="94" customWidth="1"/>
-    <col min="19" max="21" width="12.5" style="94" customWidth="1"/>
-    <col min="22" max="22" width="12.5" style="94" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1640625" style="94" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" style="94" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.1640625" style="94" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5" style="94" customWidth="1"/>
-    <col min="27" max="29" width="7.83203125" style="94" customWidth="1"/>
-    <col min="30" max="16384" width="9.1640625" style="94"/>
+    <col min="1" max="1" width="12.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.453125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="94" customWidth="1"/>
+    <col min="5" max="7" width="13.453125" style="94" customWidth="1"/>
+    <col min="8" max="10" width="12.453125" style="94" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" style="94" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" style="94" customWidth="1"/>
+    <col min="13" max="14" width="12.453125" style="94" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="94" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="95"/>
+    <col min="17" max="17" width="9.81640625" style="96" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" style="94" customWidth="1"/>
+    <col min="19" max="21" width="12.453125" style="94" customWidth="1"/>
+    <col min="22" max="22" width="12.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" style="94" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.1796875" style="94" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.453125" style="94" customWidth="1"/>
+    <col min="27" max="29" width="7.81640625" style="94" customWidth="1"/>
+    <col min="30" max="16384" width="9.1796875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -4946,10 +5902,10 @@
         <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>90</v>
@@ -5006,7 +5962,7 @@
         <v>104</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>105</v>
@@ -5018,7 +5974,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="94">
         <v>1</v>
       </c>
@@ -5042,11 +5998,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AC2" s="97" t="e">
-        <f>+AB2*1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+        <f>AB2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="94">
         <v>2</v>
       </c>
@@ -5070,11 +6026,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AC3" s="97" t="e">
-        <f t="shared" ref="AC3:AC66" si="4">+AB3*1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AC3:AC66" si="4">AB3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="94">
         <v>3</v>
       </c>
@@ -5102,7 +6058,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="94">
         <v>4</v>
       </c>
@@ -5130,7 +6086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="94">
         <v>5</v>
       </c>
@@ -5158,7 +6114,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="94">
         <v>6</v>
       </c>
@@ -5186,7 +6142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="94">
         <v>7</v>
       </c>
@@ -5214,7 +6170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="94">
         <v>8</v>
       </c>
@@ -5242,7 +6198,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="94">
         <v>9</v>
       </c>
@@ -5270,7 +6226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="94">
         <v>10</v>
       </c>
@@ -5298,7 +6254,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="94">
         <v>11</v>
       </c>
@@ -5326,7 +6282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="94">
         <v>12</v>
       </c>
@@ -5354,7 +6310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="94">
         <v>13</v>
       </c>
@@ -5382,7 +6338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="94">
         <v>14</v>
       </c>
@@ -5410,7 +6366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="94">
         <v>15</v>
       </c>
@@ -5438,7 +6394,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="94">
         <v>16</v>
       </c>
@@ -5466,7 +6422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="94">
         <v>17</v>
       </c>
@@ -5494,7 +6450,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="94">
         <v>18</v>
       </c>
@@ -5522,7 +6478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="94">
         <v>19</v>
       </c>
@@ -5550,7 +6506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="94">
         <v>20</v>
       </c>
@@ -5578,7 +6534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="94">
         <v>21</v>
       </c>
@@ -5606,7 +6562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="94">
         <v>22</v>
       </c>
@@ -5634,7 +6590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="94">
         <v>23</v>
       </c>
@@ -5662,7 +6618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="94">
         <v>24</v>
       </c>
@@ -5690,7 +6646,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="94">
         <v>25</v>
       </c>
@@ -5718,7 +6674,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="94">
         <v>26</v>
       </c>
@@ -5746,7 +6702,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="94">
         <v>27</v>
       </c>
@@ -5774,7 +6730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="94">
         <v>28</v>
       </c>
@@ -5802,7 +6758,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="94">
         <v>29</v>
       </c>
@@ -5830,7 +6786,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="94">
         <v>30</v>
       </c>
@@ -5858,7 +6814,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="94">
         <v>31</v>
       </c>
@@ -5886,7 +6842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="94">
         <v>32</v>
       </c>
@@ -5914,7 +6870,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="94">
         <v>33</v>
       </c>
@@ -5942,7 +6898,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="94">
         <v>34</v>
       </c>
@@ -5970,7 +6926,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="94">
         <v>35</v>
       </c>
@@ -5998,7 +6954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="94">
         <v>36</v>
       </c>
@@ -6026,7 +6982,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="94">
         <v>37</v>
       </c>
@@ -6054,7 +7010,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="94">
         <v>38</v>
       </c>
@@ -6082,7 +7038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="94">
         <v>39</v>
       </c>
@@ -6110,7 +7066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="94">
         <v>40</v>
       </c>
@@ -6138,7 +7094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="94">
         <v>41</v>
       </c>
@@ -6166,7 +7122,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="94">
         <v>42</v>
       </c>
@@ -6194,7 +7150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" s="94">
         <v>43</v>
       </c>
@@ -6222,7 +7178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" s="94">
         <v>44</v>
       </c>
@@ -6250,7 +7206,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="94">
         <v>45</v>
       </c>
@@ -6278,7 +7234,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="94">
         <v>46</v>
       </c>
@@ -6306,7 +7262,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="94">
         <v>47</v>
       </c>
@@ -6334,7 +7290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="94">
         <v>48</v>
       </c>
@@ -6362,7 +7318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" s="94">
         <v>49</v>
       </c>
@@ -6390,7 +7346,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" s="94">
         <v>50</v>
       </c>
@@ -6418,7 +7374,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" s="94">
         <v>51</v>
       </c>
@@ -6446,7 +7402,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" s="94">
         <v>52</v>
       </c>
@@ -6474,7 +7430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" s="94">
         <v>53</v>
       </c>
@@ -6502,7 +7458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A55" s="94">
         <v>54</v>
       </c>
@@ -6530,7 +7486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" s="94">
         <v>55</v>
       </c>
@@ -6558,7 +7514,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A57" s="94">
         <v>56</v>
       </c>
@@ -6586,7 +7542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A58" s="94">
         <v>57</v>
       </c>
@@ -6614,7 +7570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A59" s="94">
         <v>58</v>
       </c>
@@ -6642,7 +7598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A60" s="94">
         <v>59</v>
       </c>
@@ -6670,7 +7626,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="94">
         <v>60</v>
       </c>
@@ -6698,7 +7654,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A62" s="94">
         <v>61</v>
       </c>
@@ -6726,7 +7682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A63" s="94">
         <v>62</v>
       </c>
@@ -6754,7 +7710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A64" s="94">
         <v>63</v>
       </c>
@@ -6782,7 +7738,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A65" s="94">
         <v>64</v>
       </c>
@@ -6810,7 +7766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A66" s="94">
         <v>65</v>
       </c>
@@ -6838,7 +7794,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A67" s="94">
         <v>66</v>
       </c>
@@ -6862,11 +7818,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AC67" s="97" t="e">
-        <f t="shared" ref="AC67:AC97" si="10">+AB67*1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AC67:AC97" si="10">AB67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A68" s="94">
         <v>67</v>
       </c>
@@ -6894,7 +7850,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A69" s="94">
         <v>68</v>
       </c>
@@ -6922,7 +7878,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A70" s="94">
         <v>69</v>
       </c>
@@ -6950,7 +7906,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A71" s="94">
         <v>70</v>
       </c>
@@ -6978,7 +7934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A72" s="94">
         <v>71</v>
       </c>
@@ -7006,7 +7962,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A73" s="94">
         <v>72</v>
       </c>
@@ -7034,7 +7990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A74" s="94">
         <v>73</v>
       </c>
@@ -7062,7 +8018,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A75" s="94">
         <v>74</v>
       </c>
@@ -7090,7 +8046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A76" s="94">
         <v>75</v>
       </c>
@@ -7118,7 +8074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A77" s="94">
         <v>76</v>
       </c>
@@ -7146,7 +8102,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A78" s="94">
         <v>77</v>
       </c>
@@ -7174,7 +8130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A79" s="94">
         <v>78</v>
       </c>
@@ -7202,7 +8158,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A80" s="94">
         <v>79</v>
       </c>
@@ -7230,7 +8186,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A81" s="94">
         <v>80</v>
       </c>
@@ -7258,7 +8214,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A82" s="94">
         <v>81</v>
       </c>
@@ -7286,7 +8242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A83" s="94">
         <v>82</v>
       </c>
@@ -7314,7 +8270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A84" s="94">
         <v>83</v>
       </c>
@@ -7342,7 +8298,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="94">
         <v>84</v>
       </c>
@@ -7370,7 +8326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A86" s="94">
         <v>85</v>
       </c>
@@ -7398,7 +8354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A87" s="94">
         <v>86</v>
       </c>
@@ -7426,7 +8382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A88" s="94">
         <v>87</v>
       </c>
@@ -7454,7 +8410,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A89" s="94">
         <v>88</v>
       </c>
@@ -7482,7 +8438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A90" s="94">
         <v>89</v>
       </c>
@@ -7510,7 +8466,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A91" s="94">
         <v>90</v>
       </c>
@@ -7538,7 +8494,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A92" s="94">
         <v>91</v>
       </c>
@@ -7566,7 +8522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A93" s="94">
         <v>92</v>
       </c>
@@ -7594,7 +8550,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A94" s="94">
         <v>93</v>
       </c>
@@ -7622,7 +8578,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A95" s="94">
         <v>94</v>
       </c>
@@ -7650,7 +8606,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A96" s="94">
         <v>95</v>
       </c>
@@ -7678,7 +8634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A97" s="94">
         <v>96</v>
       </c>
@@ -7706,44 +8662,44 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.35">
       <c r="AC98" s="97"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P2:P97">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
       <formula>4.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="3" operator="equal">
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="4" operator="equal">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q97">
-    <cfRule type="top10" dxfId="43" priority="12" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="166" priority="12" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB98:AB1048576">
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7753,285 +8709,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE895A9B-1F34-4976-B120-D3EE7AF75A58}">
-  <dimension ref="A1:AK140"/>
+  <dimension ref="A1:AK141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137:I137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="9" style="14" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="14" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" style="14" customWidth="1"/>
     <col min="11" max="11" width="9" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="14" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="14"/>
-    <col min="16" max="16" width="8.1640625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" style="14" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="14" customWidth="1"/>
-    <col min="20" max="20" width="6.5" style="14" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" style="14" customWidth="1"/>
-    <col min="22" max="22" width="5.5" style="14" customWidth="1"/>
-    <col min="23" max="23" width="6.1640625" style="14" customWidth="1"/>
-    <col min="24" max="25" width="5.83203125" style="14" customWidth="1"/>
-    <col min="26" max="27" width="6.5" style="14" customWidth="1"/>
-    <col min="28" max="28" width="6.1640625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="5.83203125" style="14" customWidth="1"/>
-    <col min="30" max="31" width="8.83203125" style="14"/>
-    <col min="32" max="32" width="9.5" style="14" customWidth="1"/>
-    <col min="33" max="16384" width="8.83203125" style="14"/>
+    <col min="12" max="12" width="10.453125" style="14" customWidth="1"/>
+    <col min="13" max="14" width="8.6328125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="14"/>
+    <col min="16" max="16" width="8.1796875" style="14" customWidth="1"/>
+    <col min="17" max="17" width="5.6328125" style="14" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" style="14" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="14" customWidth="1"/>
+    <col min="21" max="21" width="5.36328125" style="14" customWidth="1"/>
+    <col min="22" max="22" width="5.453125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" style="14" customWidth="1"/>
+    <col min="24" max="25" width="5.81640625" style="14" customWidth="1"/>
+    <col min="26" max="27" width="6.453125" style="14" customWidth="1"/>
+    <col min="28" max="28" width="6.1796875" style="14" customWidth="1"/>
+    <col min="29" max="29" width="5.81640625" style="14" customWidth="1"/>
+    <col min="30" max="31" width="8.81640625" style="14"/>
+    <col min="32" max="32" width="9.453125" style="14" customWidth="1"/>
+    <col min="33" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
-      <c r="C1" s="170" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
+      <c r="C1" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
       <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="171" t="s">
+    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="165" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-    </row>
-    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="173" t="s">
+      <c r="O2" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+    </row>
+    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-    </row>
-    <row r="4" spans="1:37" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="166" t="s">
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+    </row>
+    <row r="4" spans="1:37" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+    </row>
+    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-    </row>
-    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="166" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="AK5" s="18"/>
+    </row>
+    <row r="6" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="O5" s="165"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="AK5" s="18"/>
-    </row>
-    <row r="6" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
       <c r="K6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="17">
         <v>1</v>
       </c>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
       <c r="AK6" s="18"/>
     </row>
-    <row r="7" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166" t="s">
+    <row r="7" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="102"/>
+      <c r="L7" s="17"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="AK7" s="18"/>
+    </row>
+    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="168" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="169"/>
-      <c r="L7" s="17"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="AK7" s="18"/>
-    </row>
-    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
       <c r="K8" s="57"/>
       <c r="L8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="M8" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
       <c r="AK8" s="18"/>
     </row>
-    <row r="9" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
+    <row r="9" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
       <c r="K9" s="60"/>
       <c r="L9" s="61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-    </row>
-    <row r="10" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+    </row>
+    <row r="10" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
       <c r="K10" s="60"/>
       <c r="L10" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M10" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="O10" s="165"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-    </row>
-    <row r="11" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+    </row>
+    <row r="11" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
       <c r="K11" s="60"/>
       <c r="L11" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="64" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="155"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="156"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="65"/>
       <c r="F12" s="19" t="b">
         <f>MOD(E12,8)=0</f>
@@ -8047,53 +9003,55 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="148" t="s">
+    <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="66"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="66">
+        <v>70</v>
+      </c>
       <c r="F13" s="19" t="b">
         <f>MOD(E13,12)=0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="19">
         <f>ROUNDDOWN((E13/12),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="19">
         <f>E13-G13*12</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="157" t="s">
+    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="159"/>
-    </row>
-    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="121"/>
+    </row>
+    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21"/>
       <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="C16" s="24">
         <v>1</v>
@@ -8133,7 +9091,7 @@
       </c>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="25" t="s">
         <v>1</v>
@@ -8188,7 +9146,7 @@
       </c>
       <c r="O17" s="28"/>
     </row>
-    <row r="18" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="25" t="s">
         <v>2</v>
@@ -8243,7 +9201,7 @@
       </c>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="25" t="s">
         <v>3</v>
@@ -8298,7 +9256,7 @@
       </c>
       <c r="O19" s="28"/>
     </row>
-    <row r="20" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="25" t="s">
         <v>4</v>
@@ -8328,32 +9286,32 @@
         <v>0</v>
       </c>
       <c r="I20" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$43,prep_table!$C$53)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$44,prep_table!$C$53)</f>
         <v>0</v>
       </c>
       <c r="J20" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$44,prep_table!$C$61)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$45,prep_table!$C$61)</f>
         <v>0</v>
       </c>
       <c r="K20" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$45,prep_table!$C$69)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$46,prep_table!$C$69)</f>
         <v>0</v>
       </c>
       <c r="L20" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$46,prep_table!$C$77)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$47,prep_table!$C$77)</f>
         <v>0</v>
       </c>
       <c r="M20" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$47,prep_table!$C$85)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$48,prep_table!$C$85)</f>
         <v>0</v>
       </c>
       <c r="N20" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$48,prep_table!$C$93)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$49,prep_table!$C$93)</f>
         <v>0</v>
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="25" t="s">
         <v>5</v>
@@ -8363,52 +9321,52 @@
         <v>0</v>
       </c>
       <c r="D21" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$50,prep_table!$C$14)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$51,prep_table!$C$14)</f>
         <v>0</v>
       </c>
       <c r="E21" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$51,prep_table!$C$22)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$52,prep_table!$C$22)</f>
         <v>0</v>
       </c>
       <c r="F21" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$52,prep_table!$C$30)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$53,prep_table!$C$30)</f>
         <v>0</v>
       </c>
       <c r="G21" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$53,prep_table!$C$38)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$54,prep_table!$C$38)</f>
         <v>0</v>
       </c>
       <c r="H21" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$54,prep_table!$C$46)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$55,prep_table!$C$46)</f>
         <v>0</v>
       </c>
       <c r="I21" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$55,prep_table!$C$54)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$56,prep_table!$C$54)</f>
         <v>0</v>
       </c>
       <c r="J21" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$56,prep_table!$C$62)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$57,prep_table!$C$62)</f>
         <v>0</v>
       </c>
       <c r="K21" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$57,prep_table!$C$70)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$58,prep_table!$C$70)</f>
         <v>0</v>
       </c>
       <c r="L21" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$58,prep_table!$C$78)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$59,prep_table!$C$78)</f>
         <v>0</v>
       </c>
       <c r="M21" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$59,prep_table!$C$86)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$60,prep_table!$C$86)</f>
         <v>0</v>
       </c>
       <c r="N21" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$60,prep_table!$C$94)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$61,prep_table!$C$94)</f>
         <v>0</v>
       </c>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="25" t="s">
         <v>6</v>
@@ -8418,52 +9376,52 @@
         <v>0</v>
       </c>
       <c r="D22" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$62,prep_table!$C$15)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$63,prep_table!$C$15)</f>
         <v>0</v>
       </c>
       <c r="E22" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$63,prep_table!$C$23)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$64,prep_table!$C$23)</f>
         <v>0</v>
       </c>
       <c r="F22" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$64,prep_table!$C$31)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$65,prep_table!$C$31)</f>
         <v>0</v>
       </c>
       <c r="G22" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$65,prep_table!$C$39)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$66,prep_table!$C$39)</f>
         <v>0</v>
       </c>
       <c r="H22" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$66,prep_table!$C$47)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$67,prep_table!$C$47)</f>
         <v>0</v>
       </c>
       <c r="I22" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$67,prep_table!$C$55)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$68,prep_table!$C$55)</f>
         <v>0</v>
       </c>
       <c r="J22" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$68,prep_table!$C$63)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$69,prep_table!$C$63)</f>
         <v>0</v>
       </c>
       <c r="K22" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$69,prep_table!$C$71)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$70,prep_table!$C$71)</f>
         <v>0</v>
       </c>
       <c r="L22" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$70,prep_table!$C$79)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$71,prep_table!$C$79)</f>
         <v>0</v>
       </c>
       <c r="M22" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$71,prep_table!$C$87)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$72,prep_table!$C$87)</f>
         <v>0</v>
       </c>
       <c r="N22" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$71,prep_table!$C$95)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$73,prep_table!$C$95)</f>
         <v>0</v>
       </c>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
       <c r="B23" s="25" t="s">
         <v>7</v>
@@ -8473,52 +9431,52 @@
         <v>0</v>
       </c>
       <c r="D23" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$74,prep_table!$C$16)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$75,prep_table!$C$16)</f>
         <v>0</v>
       </c>
       <c r="E23" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$75,prep_table!$C$24)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$76,prep_table!$C$24)</f>
         <v>0</v>
       </c>
       <c r="F23" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$78,prep_table!$C$32)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$77,prep_table!$C$32)</f>
         <v>0</v>
       </c>
       <c r="G23" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$79,prep_table!$C$40)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$78,prep_table!$C$40)</f>
         <v>0</v>
       </c>
       <c r="H23" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$80,prep_table!$C$48)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$79,prep_table!$C$48)</f>
         <v>0</v>
       </c>
       <c r="I23" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$81,prep_table!$C$56)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$80,prep_table!$C$56)</f>
         <v>0</v>
       </c>
       <c r="J23" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$82,prep_table!$C$64)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$81,prep_table!$C$64)</f>
         <v>0</v>
       </c>
       <c r="K23" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$83,prep_table!$C$72)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$82,prep_table!$C$72)</f>
         <v>0</v>
       </c>
       <c r="L23" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$84,prep_table!$C$80)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$83,prep_table!$C$80)</f>
         <v>0</v>
       </c>
       <c r="M23" s="26">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$85,prep_table!$C$88)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$84,prep_table!$C$88)</f>
         <v>0</v>
       </c>
       <c r="N23" s="27">
-        <f>IF(ISNUMBER($E$13),prep_table!$C$86,prep_table!$C$96)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$C$85,prep_table!$C$96)</f>
         <v>0</v>
       </c>
       <c r="O23" s="28"/>
     </row>
-    <row r="24" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="25" t="s">
         <v>8</v>
@@ -8573,7 +9531,7 @@
       </c>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>61</v>
       </c>
@@ -8629,55 +9587,55 @@
       <c r="AB25" s="54"/>
       <c r="AC25" s="28"/>
     </row>
-    <row r="26" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$2,prep_table!$P$2)</f>
         <v>5</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$3,prep_table!$P$10)</f>
         <v>5</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$4,prep_table!$P$18)</f>
         <v>5</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$5,prep_table!$P$26)</f>
         <v>5</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$6,prep_table!$P$34)</f>
         <v>5</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$7,prep_table!$P$42)</f>
         <v>5</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$8,prep_table!$P$50)</f>
         <v>5</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$9,prep_table!$P$58)</f>
         <v>5</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$10,prep_table!$P$66)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$11,prep_table!$P$74)</f>
         <v>5</v>
       </c>
-      <c r="M26" s="52">
+      <c r="M26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$12,prep_table!$P$82)</f>
         <v>5</v>
       </c>
-      <c r="N26" s="52">
+      <c r="N26" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$13,prep_table!$P$90)</f>
         <v>5</v>
       </c>
@@ -8696,55 +9654,55 @@
       <c r="AB26" s="54"/>
       <c r="AC26" s="28"/>
     </row>
-    <row r="27" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$14,prep_table!$P$3)</f>
         <v>5</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$15,prep_table!$P$11)</f>
         <v>5</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$16,prep_table!$P$19)</f>
         <v>5</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$17,prep_table!$P$27)</f>
         <v>5</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$18,prep_table!$P$35)</f>
         <v>5</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$19,prep_table!$P$43)</f>
         <v>5</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$20,prep_table!$P$51)</f>
         <v>5</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$21,prep_table!$P$59)</f>
         <v>5</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$22,prep_table!$P$67)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$23,prep_table!$P$75)</f>
         <v>5</v>
       </c>
-      <c r="M27" s="52">
+      <c r="M27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$24,prep_table!$P$83)</f>
         <v>5</v>
       </c>
-      <c r="N27" s="52">
+      <c r="N27" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$25,prep_table!$P$91)</f>
         <v>5</v>
       </c>
@@ -8763,55 +9721,55 @@
       <c r="AB27" s="54"/>
       <c r="AC27" s="28"/>
     </row>
-    <row r="28" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$26,prep_table!$P$4)</f>
         <v>5</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$27,prep_table!$P$12)</f>
         <v>5</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$28,prep_table!$P$20)</f>
         <v>5</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$29,prep_table!$P$28)</f>
         <v>5</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$30,prep_table!$P$36)</f>
         <v>5</v>
       </c>
-      <c r="H28" s="52">
+      <c r="H28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$31,prep_table!$P$44)</f>
         <v>5</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$32,prep_table!$P$52)</f>
         <v>5</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$33,prep_table!$P$60)</f>
         <v>5</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$34,prep_table!$P$68)</f>
         <v>5</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$35,prep_table!$P$76)</f>
         <v>5</v>
       </c>
-      <c r="M28" s="52">
+      <c r="M28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$36,prep_table!$P$84)</f>
         <v>5</v>
       </c>
-      <c r="N28" s="52">
+      <c r="N28" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$37,prep_table!$P$92)</f>
         <v>5</v>
       </c>
@@ -8830,56 +9788,56 @@
       <c r="AB28" s="54"/>
       <c r="AC28" s="28"/>
     </row>
-    <row r="29" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$38,prep_table!$P$5)</f>
         <v>5</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$39,prep_table!$P$13)</f>
         <v>5</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$40,prep_table!$P$21)</f>
         <v>5</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$41,prep_table!$P$29)</f>
         <v>5</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$42,prep_table!$P$37)</f>
         <v>5</v>
       </c>
-      <c r="H29" s="52">
+      <c r="H29" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$43,prep_table!$P$45)</f>
         <v>5</v>
       </c>
-      <c r="I29" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$43,prep_table!$P$53)</f>
-        <v>5</v>
-      </c>
-      <c r="J29" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$44,prep_table!$P$61)</f>
-        <v>5</v>
-      </c>
-      <c r="K29" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$45,prep_table!$P$69)</f>
-        <v>5</v>
-      </c>
-      <c r="L29" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$46,prep_table!$P$77)</f>
-        <v>5</v>
-      </c>
-      <c r="M29" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$47,prep_table!$P$85)</f>
-        <v>5</v>
-      </c>
-      <c r="N29" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$48,prep_table!$P$93)</f>
+      <c r="I29" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$44,prep_table!$P$53)</f>
+        <v>5</v>
+      </c>
+      <c r="J29" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$45,prep_table!$P$61)</f>
+        <v>5</v>
+      </c>
+      <c r="K29" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$46,prep_table!$P$69)</f>
+        <v>5</v>
+      </c>
+      <c r="L29" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$47,prep_table!$P$77)</f>
+        <v>5</v>
+      </c>
+      <c r="M29" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$48,prep_table!$P$85)</f>
+        <v>5</v>
+      </c>
+      <c r="N29" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$49,prep_table!$P$93)</f>
         <v>5</v>
       </c>
       <c r="O29" s="28"/>
@@ -8897,56 +9855,56 @@
       <c r="AB29" s="54"/>
       <c r="AC29" s="28"/>
     </row>
-    <row r="30" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$50,prep_table!$P$6)</f>
         <v>5</v>
       </c>
-      <c r="D30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$50,prep_table!$P$14)</f>
-        <v>5</v>
-      </c>
-      <c r="E30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$51,prep_table!$P$22)</f>
-        <v>5</v>
-      </c>
-      <c r="F30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$52,prep_table!$P$30)</f>
-        <v>5</v>
-      </c>
-      <c r="G30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$53,prep_table!$P$38)</f>
-        <v>5</v>
-      </c>
-      <c r="H30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$54,prep_table!$P$46)</f>
-        <v>5</v>
-      </c>
-      <c r="I30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$55,prep_table!$P$54)</f>
-        <v>5</v>
-      </c>
-      <c r="J30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$56,prep_table!$P$62)</f>
-        <v>5</v>
-      </c>
-      <c r="K30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$57,prep_table!$P$70)</f>
-        <v>5</v>
-      </c>
-      <c r="L30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$58,prep_table!$P$78)</f>
-        <v>5</v>
-      </c>
-      <c r="M30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$59,prep_table!$P$86)</f>
-        <v>5</v>
-      </c>
-      <c r="N30" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$60,prep_table!$P$94)</f>
+      <c r="D30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$51,prep_table!$P$14)</f>
+        <v>5</v>
+      </c>
+      <c r="E30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$52,prep_table!$P$22)</f>
+        <v>5</v>
+      </c>
+      <c r="F30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$53,prep_table!$P$30)</f>
+        <v>5</v>
+      </c>
+      <c r="G30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$54,prep_table!$P$38)</f>
+        <v>5</v>
+      </c>
+      <c r="H30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$55,prep_table!$P$46)</f>
+        <v>5</v>
+      </c>
+      <c r="I30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$56,prep_table!$P$54)</f>
+        <v>5</v>
+      </c>
+      <c r="J30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$57,prep_table!$P$62)</f>
+        <v>5</v>
+      </c>
+      <c r="K30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$58,prep_table!$P$70)</f>
+        <v>5</v>
+      </c>
+      <c r="L30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$59,prep_table!$P$78)</f>
+        <v>5</v>
+      </c>
+      <c r="M30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$60,prep_table!$P$86)</f>
+        <v>5</v>
+      </c>
+      <c r="N30" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$61,prep_table!$P$94)</f>
         <v>5</v>
       </c>
       <c r="O30" s="28"/>
@@ -8964,56 +9922,56 @@
       <c r="AB30" s="54"/>
       <c r="AC30" s="28"/>
     </row>
-    <row r="31" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$62,prep_table!$P$7)</f>
         <v>5</v>
       </c>
-      <c r="D31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$62,prep_table!$P$15)</f>
-        <v>5</v>
-      </c>
-      <c r="E31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$63,prep_table!$P$23)</f>
-        <v>5</v>
-      </c>
-      <c r="F31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$64,prep_table!$P$31)</f>
-        <v>5</v>
-      </c>
-      <c r="G31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$65,prep_table!$P$39)</f>
-        <v>5</v>
-      </c>
-      <c r="H31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$66,prep_table!$P$47)</f>
-        <v>5</v>
-      </c>
-      <c r="I31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$67,prep_table!$P$55)</f>
-        <v>5</v>
-      </c>
-      <c r="J31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$68,prep_table!$P$63)</f>
-        <v>5</v>
-      </c>
-      <c r="K31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$69,prep_table!$P$71)</f>
-        <v>5</v>
-      </c>
-      <c r="L31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$70,prep_table!$P$79)</f>
-        <v>5</v>
-      </c>
-      <c r="M31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$71,prep_table!$P$87)</f>
-        <v>5</v>
-      </c>
-      <c r="N31" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$71,prep_table!$P$95)</f>
+      <c r="D31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$63,prep_table!$P$15)</f>
+        <v>5</v>
+      </c>
+      <c r="E31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$64,prep_table!$P$23)</f>
+        <v>5</v>
+      </c>
+      <c r="F31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$65,prep_table!$P$31)</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$66,prep_table!$P$39)</f>
+        <v>5</v>
+      </c>
+      <c r="H31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$67,prep_table!$P$47)</f>
+        <v>5</v>
+      </c>
+      <c r="I31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$68,prep_table!$P$55)</f>
+        <v>5</v>
+      </c>
+      <c r="J31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$69,prep_table!$P$63)</f>
+        <v>5</v>
+      </c>
+      <c r="K31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$70,prep_table!$P$71)</f>
+        <v>5</v>
+      </c>
+      <c r="L31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$71,prep_table!$P$79)</f>
+        <v>5</v>
+      </c>
+      <c r="M31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$72,prep_table!$P$87)</f>
+        <v>5</v>
+      </c>
+      <c r="N31" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$73,prep_table!$P$95)</f>
         <v>5</v>
       </c>
       <c r="O31" s="28"/>
@@ -9031,56 +9989,56 @@
       <c r="AB31" s="54"/>
       <c r="AC31" s="28"/>
     </row>
-    <row r="32" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$74,prep_table!$P$8)</f>
         <v>5</v>
       </c>
-      <c r="D32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$74,prep_table!$P$16)</f>
-        <v>5</v>
-      </c>
-      <c r="E32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$75,prep_table!$P$24)</f>
-        <v>5</v>
-      </c>
-      <c r="F32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$78,prep_table!$P$32)</f>
-        <v>5</v>
-      </c>
-      <c r="G32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$79,prep_table!$P$40)</f>
-        <v>5</v>
-      </c>
-      <c r="H32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$80,prep_table!$P$48)</f>
-        <v>5</v>
-      </c>
-      <c r="I32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$81,prep_table!$P$56)</f>
-        <v>5</v>
-      </c>
-      <c r="J32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$82,prep_table!$P$64)</f>
-        <v>5</v>
-      </c>
-      <c r="K32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$83,prep_table!$P$72)</f>
-        <v>5</v>
-      </c>
-      <c r="L32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$84,prep_table!$P$80)</f>
-        <v>5</v>
-      </c>
-      <c r="M32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$85,prep_table!$P$88)</f>
-        <v>5</v>
-      </c>
-      <c r="N32" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$P$86,prep_table!$P$96)</f>
+      <c r="D32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$75,prep_table!$P$16)</f>
+        <v>5</v>
+      </c>
+      <c r="E32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$76,prep_table!$P$24)</f>
+        <v>5</v>
+      </c>
+      <c r="F32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$77,prep_table!$P$32)</f>
+        <v>5</v>
+      </c>
+      <c r="G32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$78,prep_table!$P$40)</f>
+        <v>5</v>
+      </c>
+      <c r="H32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$79,prep_table!$P$48)</f>
+        <v>5</v>
+      </c>
+      <c r="I32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$80,prep_table!$P$56)</f>
+        <v>5</v>
+      </c>
+      <c r="J32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$81,prep_table!$P$64)</f>
+        <v>5</v>
+      </c>
+      <c r="K32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$82,prep_table!$P$72)</f>
+        <v>5</v>
+      </c>
+      <c r="L32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$83,prep_table!$P$80)</f>
+        <v>5</v>
+      </c>
+      <c r="M32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$84,prep_table!$P$88)</f>
+        <v>5</v>
+      </c>
+      <c r="N32" s="175">
+        <f>IF(ISNUMBER($E$13),prep_table!$P$85,prep_table!$P$96)</f>
         <v>5</v>
       </c>
       <c r="O32" s="28"/>
@@ -9098,55 +10056,55 @@
       <c r="AB32" s="54"/>
       <c r="AC32" s="28"/>
     </row>
-    <row r="33" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$86,prep_table!$P$9)</f>
         <v>5</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$87,prep_table!$P$17)</f>
         <v>5</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$88,prep_table!$P$25)</f>
         <v>5</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$89,prep_table!$P$33)</f>
         <v>5</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$90,prep_table!$P$41)</f>
         <v>5</v>
       </c>
-      <c r="H33" s="52">
+      <c r="H33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$91,prep_table!$P$49)</f>
         <v>5</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$92,prep_table!$P$57)</f>
         <v>5</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$93,prep_table!$P$65)</f>
         <v>5</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$94,prep_table!$P$73)</f>
         <v>5</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$95,prep_table!$P$81)</f>
         <v>5</v>
       </c>
-      <c r="M33" s="52">
+      <c r="M33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$96,prep_table!$P$89)</f>
         <v>5</v>
       </c>
-      <c r="N33" s="52">
+      <c r="N33" s="175">
         <f>IF(ISNUMBER($E$13),prep_table!$P$97,prep_table!$P$97)</f>
         <v>5</v>
       </c>
@@ -9165,9 +10123,9 @@
       <c r="AB33" s="54"/>
       <c r="AC33" s="28"/>
     </row>
-    <row r="34" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34"/>
       <c r="C34" s="24">
@@ -9221,7 +10179,7 @@
       <c r="AB34" s="54"/>
       <c r="AC34" s="28"/>
     </row>
-    <row r="35" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="25" t="s">
         <v>1</v>
       </c>
@@ -9288,7 +10246,7 @@
       <c r="AB35" s="54"/>
       <c r="AC35" s="28"/>
     </row>
-    <row r="36" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="25" t="s">
         <v>2</v>
       </c>
@@ -9355,7 +10313,7 @@
       <c r="AB36" s="54"/>
       <c r="AC36" s="28"/>
     </row>
-    <row r="37" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="25" t="s">
         <v>3</v>
       </c>
@@ -9422,7 +10380,7 @@
       <c r="AB37" s="54"/>
       <c r="AC37" s="28"/>
     </row>
-    <row r="38" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="25" t="s">
         <v>4</v>
       </c>
@@ -9451,27 +10409,27 @@
         <v>0</v>
       </c>
       <c r="I38" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$43,prep_table!$O$53)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$44,prep_table!$O$53)</f>
         <v>0</v>
       </c>
       <c r="J38" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$44,prep_table!$O$61)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$45,prep_table!$O$61)</f>
         <v>0</v>
       </c>
       <c r="K38" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$45,prep_table!$O$69)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$46,prep_table!$O$69)</f>
         <v>0</v>
       </c>
       <c r="L38" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$46,prep_table!$O$77)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$47,prep_table!$O$77)</f>
         <v>0</v>
       </c>
       <c r="M38" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$47,prep_table!$O$85)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$48,prep_table!$O$85)</f>
         <v>0</v>
       </c>
       <c r="N38" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$48,prep_table!$O$93)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$49,prep_table!$O$93)</f>
         <v>0</v>
       </c>
       <c r="O38"/>
@@ -9489,7 +10447,7 @@
       <c r="AB38" s="54"/>
       <c r="AC38" s="28"/>
     </row>
-    <row r="39" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -9498,47 +10456,47 @@
         <v>0</v>
       </c>
       <c r="D39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$50,prep_table!$O$14)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$51,prep_table!$O$14)</f>
         <v>0</v>
       </c>
       <c r="E39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$51,prep_table!$O$22)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$52,prep_table!$O$22)</f>
         <v>0</v>
       </c>
       <c r="F39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$52,prep_table!$O$30)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$53,prep_table!$O$30)</f>
         <v>0</v>
       </c>
       <c r="G39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$53,prep_table!$O$38)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$54,prep_table!$O$38)</f>
         <v>0</v>
       </c>
       <c r="H39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$54,prep_table!$O$46)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$55,prep_table!$O$46)</f>
         <v>0</v>
       </c>
       <c r="I39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$55,prep_table!$O$54)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$56,prep_table!$O$54)</f>
         <v>0</v>
       </c>
       <c r="J39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$56,prep_table!$O$62)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$57,prep_table!$O$62)</f>
         <v>0</v>
       </c>
       <c r="K39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$57,prep_table!$O$70)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$58,prep_table!$O$70)</f>
         <v>0</v>
       </c>
       <c r="L39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$58,prep_table!$O$78)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$59,prep_table!$O$78)</f>
         <v>0</v>
       </c>
       <c r="M39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$59,prep_table!$O$86)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$60,prep_table!$O$86)</f>
         <v>0</v>
       </c>
       <c r="N39" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$60,prep_table!$O$94)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$61,prep_table!$O$94)</f>
         <v>0</v>
       </c>
       <c r="O39"/>
@@ -9556,7 +10514,7 @@
       <c r="AB39" s="54"/>
       <c r="AC39" s="28"/>
     </row>
-    <row r="40" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -9565,47 +10523,47 @@
         <v>0</v>
       </c>
       <c r="D40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$62,prep_table!$O$15)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$63,prep_table!$O$15)</f>
         <v>0</v>
       </c>
       <c r="E40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$63,prep_table!$O$23)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$64,prep_table!$O$23)</f>
         <v>0</v>
       </c>
       <c r="F40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$64,prep_table!$O$31)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$65,prep_table!$O$31)</f>
         <v>0</v>
       </c>
       <c r="G40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$65,prep_table!$O$39)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$66,prep_table!$O$39)</f>
         <v>0</v>
       </c>
       <c r="H40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$66,prep_table!$O$47)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$67,prep_table!$O$47)</f>
         <v>0</v>
       </c>
       <c r="I40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$67,prep_table!$O$55)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$68,prep_table!$O$55)</f>
         <v>0</v>
       </c>
       <c r="J40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$68,prep_table!$O$63)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$69,prep_table!$O$63)</f>
         <v>0</v>
       </c>
       <c r="K40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$69,prep_table!$O$71)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$70,prep_table!$O$71)</f>
         <v>0</v>
       </c>
       <c r="L40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$70,prep_table!$O$79)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$71,prep_table!$O$79)</f>
         <v>0</v>
       </c>
       <c r="M40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$71,prep_table!$O$87)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$72,prep_table!$O$87)</f>
         <v>0</v>
       </c>
       <c r="N40" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$71,prep_table!$O$95)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$73,prep_table!$O$95)</f>
         <v>0</v>
       </c>
       <c r="O40"/>
@@ -9623,7 +10581,7 @@
       <c r="AB40" s="54"/>
       <c r="AC40" s="28"/>
     </row>
-    <row r="41" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="25" t="s">
         <v>7</v>
       </c>
@@ -9632,47 +10590,47 @@
         <v>0</v>
       </c>
       <c r="D41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$74,prep_table!$O$16)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$75,prep_table!$O$16)</f>
         <v>0</v>
       </c>
       <c r="E41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$75,prep_table!$O$24)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$76,prep_table!$O$24)</f>
         <v>0</v>
       </c>
       <c r="F41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$78,prep_table!$O$32)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$77,prep_table!$O$32)</f>
         <v>0</v>
       </c>
       <c r="G41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$79,prep_table!$O$40)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$78,prep_table!$O$40)</f>
         <v>0</v>
       </c>
       <c r="H41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$80,prep_table!$O$48)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$79,prep_table!$O$48)</f>
         <v>0</v>
       </c>
       <c r="I41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$81,prep_table!$O$56)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$80,prep_table!$O$56)</f>
         <v>0</v>
       </c>
       <c r="J41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$82,prep_table!$O$64)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$81,prep_table!$O$64)</f>
         <v>0</v>
       </c>
       <c r="K41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$83,prep_table!$O$72)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$82,prep_table!$O$72)</f>
         <v>0</v>
       </c>
       <c r="L41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$84,prep_table!$O$80)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$83,prep_table!$O$80)</f>
         <v>0</v>
       </c>
       <c r="M41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$85,prep_table!$O$88)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$84,prep_table!$O$88)</f>
         <v>0</v>
       </c>
       <c r="N41" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$O$86,prep_table!$O$96)</f>
+        <f>IF(ISNUMBER($E$13),prep_table!$O$85,prep_table!$O$96)</f>
         <v>0</v>
       </c>
       <c r="O41"/>
@@ -9690,7 +10648,7 @@
       <c r="AB41" s="54"/>
       <c r="AC41" s="28"/>
     </row>
-    <row r="42" spans="1:29" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="25" t="s">
         <v>8</v>
       </c>
@@ -9757,41 +10715,41 @@
       <c r="AB42" s="54"/>
       <c r="AC42" s="28"/>
     </row>
-    <row r="43" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="22"/>
-      <c r="B43" s="160" t="s">
+      <c r="B43" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="161"/>
-      <c r="N43" s="161"/>
-      <c r="O43" s="162"/>
-    </row>
-    <row r="44" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="124"/>
+    </row>
+    <row r="44" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="21"/>
       <c r="B44" s="13" t="str">
         <f>IF(ISNUMBER($E$12),IF($M$9="Yes",IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E13*D46/8*1.1)," µL of FS1 into each well of column 1 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D46*1.1)," µL of FS1 into first ",H12," wells and ",FIXED((G12)*D46*1.1)," µL into the other wells of MM plate column 1")), "Skip" ), IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*D46/12*1.1)," µL of FS1 into each well of row A of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*D46*1.1)," µL of FS1 into first ",$H$13," wells and ",FIXED(($G$13)*D46*1.1)," µL into the other wells of MM plate row A")))</f>
-        <v>Pipet 0.00 µL of FS1 into each well of row A of MM plate</v>
+        <v>Pipet 33.00 µL of FS1 into first 10 wells and 27.50 µL into the other wells of MM plate row A</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="N44" s="163" t="str">
+      <c r="N44" s="125" t="str">
         <f>IF(M9="No","Skip this part",IF($M$9=$M$10,"Skip this only for low Input samples", " "))</f>
-        <v xml:space="preserve"> </v>
+        <v>Skip this only for low Input samples</v>
       </c>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="21"/>
       <c r="B45" s="13" t="str">
         <f>IF($M$9="Yes", "Mix:", "Skip")</f>
@@ -9806,11 +10764,11 @@
       <c r="E45" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="N45" s="164"/>
+      <c r="N45" s="126"/>
       <c r="O45" s="28"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="22"/>
       <c r="B46" s="13"/>
       <c r="C46" s="32" t="s">
@@ -9822,10 +10780,10 @@
       <c r="E46" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="N46" s="164"/>
+      <c r="N46" s="126"/>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="22"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -9838,10 +10796,10 @@
       <c r="F47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="164"/>
+      <c r="N47" s="126"/>
       <c r="O47" s="28"/>
     </row>
-    <row r="48" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="21"/>
       <c r="B48" s="13" t="str">
         <f>IF($M$9="Yes", "Incubate:", "Skip")</f>
@@ -9854,10 +10812,10 @@
       <c r="F48" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="N48" s="164"/>
+      <c r="N48" s="126"/>
       <c r="O48" s="28"/>
     </row>
-    <row r="49" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="22"/>
       <c r="B49" s="13"/>
       <c r="D49" s="38" t="s">
@@ -9867,19 +10825,30 @@
         <v>14</v>
       </c>
       <c r="F49" s="13"/>
-      <c r="N49" s="164"/>
+      <c r="N49" s="126"/>
       <c r="O49" s="28"/>
     </row>
-    <row r="50" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="21"/>
-      <c r="B50" s="13" t="str">
-        <f>IF(ISNUMBER($E$13),IF($F$13=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED($E$13*D54/12*1.1)," µL of F into each well of row B of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*D54*1.1)," µL of F into first ",$H$13," wells and ",FIXED(($G$13)*D54*1.1)," µL into the other wells of MM plate row B")),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(E12*D54/8*1.1)," µL into each well of column 2 of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED((G12+1)*D54*1.1)," µL into first ",H12," wells and ",FIXED((G12)*D54*1.1)," µL into the other wells of MM plate column 2")))</f>
-        <v>Prepare Mastermix (F) according to the following table and pipet 0.00 µL into each well of column 2 of MM plate</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="176" t="str">
+        <f>IF(ISNUMBER($E$13),IF($F$13=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED($E$13*D54/12*1.1)," µL of F into each well of row B of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(($G$13+1)*D54*1.1)," µL of F into first ",$H$13," wells and ",FIXED(($G$13)*D54*1.1)," µL into the other wells of MM plate row B")),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(E12*D54/8*1.1)," µL into each well of column 2 of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED((G12+1)*D54*1.1)," µL into first ",H12," wells and ",FIXED((G12)*D54*1.1)," µL into the other wells of MM plate column 2")))</f>
+        <v>Prepare Mastermix (F) according to the following table and pipet 66.00 µL of F into first 10 wells and 55.00 µL into the other wells of MM plate row B</v>
+      </c>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="177"/>
+      <c r="I50" s="177"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="177"/>
+      <c r="M50" s="177"/>
+      <c r="N50" s="177"/>
+      <c r="O50" s="177"/>
+    </row>
+    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="22"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -9888,22 +10857,22 @@
       </c>
       <c r="E51" s="55" t="str">
         <f>IF(ISNUMBER($E$13),CONCATENATE(" Volume for ",$E$13," samples"),CONCATENATE(" Volume for ",$E$12," samples"))</f>
-        <v xml:space="preserve"> Volume for  samples</v>
-      </c>
-      <c r="I51" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="J51" s="146"/>
+        <v xml:space="preserve"> Volume for 70 samples</v>
+      </c>
+      <c r="I51" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" s="109"/>
       <c r="K51" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="L51" s="147" t="s">
-        <v>153</v>
-      </c>
-      <c r="M51" s="147"/>
+      <c r="L51" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="M51" s="110"/>
       <c r="N51" s="71"/>
     </row>
-    <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="22"/>
       <c r="C52" s="29" t="s">
         <v>16</v>
@@ -9913,29 +10882,29 @@
       </c>
       <c r="E52" s="30">
         <f>IF(ISNUMBER($E$13),D52*$E$13*1.1,D52*$E$12*1.1)</f>
-        <v>0</v>
+        <v>731.50000000000011</v>
       </c>
       <c r="F52" s="56" t="s">
         <v>49</v>
       </c>
       <c r="J52" s="72" t="str">
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "FS2","")</f>
-        <v/>
+        <v>FS2</v>
       </c>
       <c r="K52" s="73" t="str">
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "5","")</f>
-        <v/>
-      </c>
-      <c r="L52" s="130" t="e">
+        <v>5</v>
+      </c>
+      <c r="L52" s="129">
         <f>IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K52*$E$13*1.1,""),K52*$E$12*1.1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M52" s="131"/>
+        <v>385.00000000000006</v>
+      </c>
+      <c r="M52" s="130"/>
       <c r="N52" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="22"/>
       <c r="C53" s="32" t="s">
         <v>9</v>
@@ -9945,29 +10914,29 @@
       </c>
       <c r="E53" s="33">
         <f>IF(ISNUMBER($E$13),D53*$E$13*1.1,D53*$E$12*1.1)</f>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="F53" s="67" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="72" t="str">
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "FS2","")</f>
-        <v/>
+        <v>FS2</v>
       </c>
       <c r="K53" s="73" t="str">
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "9.5","")</f>
-        <v/>
-      </c>
-      <c r="L53" s="130" t="e">
+        <v>9.5</v>
+      </c>
+      <c r="L53" s="129">
         <f t="shared" ref="L53:L54" si="0">IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K53*$E$13*1.1,""),K53*$E$12*1.1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M53" s="131"/>
+        <v>731.50000000000011</v>
+      </c>
+      <c r="M53" s="130"/>
       <c r="N53" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="22"/>
       <c r="C54" s="35"/>
       <c r="D54" s="36">
@@ -9975,7 +10944,7 @@
       </c>
       <c r="E54" s="40">
         <f>E52+E53</f>
-        <v>0</v>
+        <v>770.00000000000011</v>
       </c>
       <c r="F54" s="68" t="s">
         <v>49</v>
@@ -9985,22 +10954,22 @@
       </c>
       <c r="J54" s="75" t="str">
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "E1","")</f>
-        <v/>
+        <v>E1</v>
       </c>
       <c r="K54" s="76" t="str">
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "0.5","")</f>
-        <v/>
-      </c>
-      <c r="L54" s="130" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="129">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M54" s="131"/>
+        <v>38.5</v>
+      </c>
+      <c r="M54" s="130"/>
       <c r="N54" s="77" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="21"/>
       <c r="B55" s="13" t="s">
         <v>51</v>
@@ -10013,22 +10982,22 @@
         <f>SUM(K52:K54)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="132" t="e">
+      <c r="L55" s="131">
         <f>SUM(L52:L54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M55" s="133"/>
+        <v>1155.0000000000002</v>
+      </c>
+      <c r="M55" s="132"/>
       <c r="N55" s="80" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="41"/>
       <c r="B56" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="21"/>
       <c r="B57" s="42" t="s">
         <v>48</v>
@@ -10039,10 +11008,10 @@
       <c r="E57" s="13"/>
       <c r="G57" s="81" t="str">
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "Incubate the low/ultralow input samples for 15 min or 1 hr at 42°C","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>Incubate the low/ultralow input samples for 15 min or 1 hr at 42°C</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="22"/>
       <c r="D58" s="38" t="s">
         <v>22</v>
@@ -10051,33 +11020,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
-      <c r="B59" s="134" t="s">
+      <c r="B59" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
-      <c r="J59" s="135"/>
-      <c r="K59" s="135"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
-      <c r="N59" s="135"/>
-      <c r="O59" s="136"/>
-    </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
+      <c r="N59" s="134"/>
+      <c r="O59" s="135"/>
+    </row>
+    <row r="60" spans="1:15" s="13" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="44"/>
       <c r="B60" s="13" t="str">
-        <f>IF(ISNUMBER($E$13),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D62/8*1.1)," µL of RS into each well of column 3 of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D62*1.1)," µL of RS into first ",H13," wells and ",FIXED((G13)*D62*1.1)," µL into the other wells of MM plate column 3")),IF($F$12=TRUE,CONCATENATE("Pipet ",FIXED($E$12*D62/8*1.1)," µL of RS into each well of column 3 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$12+1)*D62*1.1)," µL of RS into first ",H12," wells and ",FIXED(($G$12)*D62*1.1)," µL into the other wells of MM plate column 3")))</f>
-        <v>Pipet 0.00 µL of RS into each well of column 3 of MM plate</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>IF(ISNUMBER($E$13),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D62/8*1.1)," µL of RS into each well of row C of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D62*1.1)," µL of RS into first ",H13," wells and ",FIXED((G13)*D62*1.1)," µL into the other wells of MM plate row C")),IF($F$12=TRUE,CONCATENATE("Pipet ",FIXED($E$12*D62/8*1.1)," µL of RS into each well of column 3 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$12+1)*D62*1.1)," µL of RS into first ",H12," wells and ",FIXED(($G$12)*D62*1.1)," µL into the other wells of MM plate column 3")))</f>
+        <v>Pipet 33.00 µL of RS into first 10 wells and 27.50 µL into the other wells of MM plate row C</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="21"/>
       <c r="B61" s="13" t="s">
         <v>47</v>
@@ -10096,7 +11065,7 @@
         <v>Thaw USS at 37°C</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="22"/>
       <c r="C62" s="32" t="s">
         <v>21</v>
@@ -10108,7 +11077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="22"/>
       <c r="C63" s="35"/>
       <c r="D63" s="36">
@@ -10121,7 +11090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="21"/>
       <c r="B64" s="13" t="s">
         <v>53</v>
@@ -10133,10 +11102,10 @@
       <c r="E64" s="13"/>
       <c r="G64" s="81" t="str">
         <f>IF($M$11="Yes","Incubate: 95°C/5min for ULTRALOW", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>Incubate: 95°C/5min for ULTRALOW</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="22"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -10147,26 +11116,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="22"/>
-      <c r="B66" s="137" t="s">
+      <c r="B66" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="138"/>
-      <c r="F66" s="138"/>
-      <c r="G66" s="138"/>
-      <c r="H66" s="138"/>
-      <c r="I66" s="138"/>
-      <c r="J66" s="138"/>
-      <c r="K66" s="138"/>
-      <c r="L66" s="138"/>
-      <c r="M66" s="138"/>
-      <c r="N66" s="138"/>
-      <c r="O66" s="139"/>
-    </row>
-    <row r="67" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="137"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="137"/>
+      <c r="N66" s="137"/>
+      <c r="O66" s="138"/>
+    </row>
+    <row r="67" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="21"/>
       <c r="B67" s="53" t="str">
         <f>IF($M$8="Yes", "Thaw USS at 37°C","Thaw SS1 at 37°C")</f>
@@ -10178,14 +11147,14 @@
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
     </row>
-    <row r="68" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="21"/>
       <c r="B68" s="13" t="str">
         <f>IF(ISNUMBER($E$13),IF(M8="No",IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D70/12*1.1)," µL of SS1 into each well of row D of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D70*1.1)," µL of SS1 into first ",H13," wells and ",FIXED((G13)*D70*1.1)," µL into the other wells of MM plate Row D")),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D70/12*1.1)," µL of USS into each well of row D of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D70*1.1)," µL of USS into first ",H13," wells and ",FIXED((G13)*D70*1.1)," µL into the other wells of MM plate row D"))),IF(M8="No",IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E12*D70/8*1.1)," µL of SS1 into each well of column 4 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D70*1.1)," µL of SS1 into first ",H13," wells and ",FIXED((G12)*D70*1.1)," µL into the other wells of MM plate column 4")),IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E12*D70/8*1.1)," µL of USS into each well of column 4 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D70*1.1)," µL of USS into first ",H13," wells and ",FIXED((G12)*D70*1.1)," µL into the other wells of MM plate column 4"))))</f>
-        <v>Pipet 0.00 µL of USS into each well of column 4 of MM plate</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Pipet 66.00 µL of USS into first 10 wells and 55.00 µL into the other wells of MM plate row D</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C69" s="30" t="s">
         <v>54</v>
       </c>
@@ -10196,7 +11165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="22"/>
       <c r="C70" s="32" t="str">
         <f>IF($M$8="Yes", "USS","SS1")</f>
@@ -10209,7 +11178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="22"/>
       <c r="C71" s="35"/>
       <c r="D71" s="36">
@@ -10222,7 +11191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="21"/>
       <c r="B72" s="13" t="s">
         <v>48</v>
@@ -10231,13 +11200,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="22"/>
       <c r="D73" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="22"/>
       <c r="D74" s="43" t="s">
         <v>25</v>
@@ -10246,14 +11215,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="21"/>
       <c r="B75" s="13" t="str">
         <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED(E12*D78/8*1.1)," µL of S into each well of column 5 of MM plate"),CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED((G12+1)*D78*1.1)," µL of S into first ",H12," wells and ",FIXED((G12)*D78*1.1)," µL into the other wells of MM plate column 5")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED(E13*D78/12*1.1)," µL of S into each well of row E of MM plate"),CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED((G13+1)*D78*1.1)," µL of S into first ",H13," wells and ",FIXED((G13)*D78*1.1)," µL into the other wells of MM plate row E")))</f>
-        <v>Prepare Mastermix (S) according to the following table and pipet 0.00 µL of S into each well of row E of MM plate</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>Prepare Mastermix (S) according to the following table and pipet 33.00 µL of S into first 10 wells and 27.50 µL into the other wells of MM plate row E</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="21"/>
       <c r="B76" s="13" t="s">
         <v>47</v>
@@ -10265,19 +11234,19 @@
         <v>4</v>
       </c>
       <c r="E76" s="31">
-        <f>IF(ISNUMBER($E$13),D52*$E$13*1.1,D52*$E$12*1.1)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER($E$13),D76*$E$13*1.1,D76*$E$12*1.1)</f>
+        <v>308</v>
       </c>
       <c r="F76" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I76" s="140" t="s">
+      <c r="I76" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-    </row>
-    <row r="77" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="139"/>
+      <c r="K76" s="139"/>
+    </row>
+    <row r="77" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C77" s="32" t="s">
         <v>10</v>
       </c>
@@ -10286,13 +11255,13 @@
       </c>
       <c r="E77" s="34">
         <f>D77*$E$13*1.1</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F77" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="22"/>
       <c r="C78" s="35"/>
       <c r="D78" s="36">
@@ -10300,7 +11269,7 @@
       </c>
       <c r="E78" s="37">
         <f>SUM(E76:E77)</f>
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="F78" s="85" t="s">
         <v>49</v>
@@ -10309,1585 +11278,1816 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="21"/>
       <c r="B79" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D79" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="P79" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="P79" s="141" t="s">
+      <c r="Q79" s="140"/>
+    </row>
+    <row r="80" spans="1:21" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80"/>
+      <c r="B80" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="Q79" s="141"/>
-    </row>
-    <row r="80" spans="1:21" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80" s="142" t="s">
+      <c r="C80" s="142"/>
+      <c r="D80" s="142"/>
+      <c r="E80" s="142"/>
+      <c r="F80" s="142"/>
+      <c r="G80" s="142"/>
+      <c r="H80" s="142"/>
+      <c r="I80" s="142"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="142"/>
+      <c r="L80" s="142"/>
+      <c r="M80" s="142"/>
+      <c r="N80" s="142"/>
+      <c r="O80" s="143"/>
+      <c r="P80" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="143"/>
-      <c r="F80" s="143"/>
-      <c r="G80" s="143"/>
-      <c r="H80" s="143"/>
-      <c r="I80" s="143"/>
-      <c r="J80" s="143"/>
-      <c r="K80" s="143"/>
-      <c r="L80" s="143"/>
-      <c r="M80" s="143"/>
-      <c r="N80" s="143"/>
-      <c r="O80" s="144"/>
-      <c r="P80" s="121" t="s">
+      <c r="Q80" s="128"/>
+      <c r="R80" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="Q80" s="121"/>
-      <c r="R80" s="121" t="s">
+      <c r="S80" s="128"/>
+      <c r="T80" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="S80" s="121"/>
-      <c r="T80" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="U80" s="121"/>
-    </row>
-    <row r="81" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U80" s="128"/>
+    </row>
+    <row r="81" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="21"/>
       <c r="B81" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="P81" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="P81" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="Q81" s="120"/>
-      <c r="R81" s="120">
+      <c r="Q81" s="144"/>
+      <c r="R81" s="144">
         <v>7</v>
       </c>
-      <c r="S81" s="120"/>
-      <c r="T81" s="121"/>
-      <c r="U81" s="121"/>
-    </row>
-    <row r="82" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S81" s="144"/>
+      <c r="T81" s="128"/>
+      <c r="U81" s="128"/>
+    </row>
+    <row r="82" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="21"/>
-      <c r="B82" s="127" t="s">
+      <c r="B82" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="128"/>
-      <c r="D82" s="128"/>
-      <c r="E82" s="128"/>
-      <c r="F82" s="128"/>
-      <c r="G82" s="128"/>
-      <c r="H82" s="128"/>
-      <c r="I82" s="128"/>
-      <c r="J82" s="128"/>
-      <c r="K82" s="128"/>
-      <c r="L82" s="128"/>
-      <c r="M82" s="128"/>
-      <c r="N82" s="128"/>
-      <c r="O82" s="129"/>
-      <c r="P82" s="120" t="s">
+      <c r="C82" s="146"/>
+      <c r="D82" s="146"/>
+      <c r="E82" s="146"/>
+      <c r="F82" s="146"/>
+      <c r="G82" s="146"/>
+      <c r="H82" s="146"/>
+      <c r="I82" s="146"/>
+      <c r="J82" s="146"/>
+      <c r="K82" s="146"/>
+      <c r="L82" s="146"/>
+      <c r="M82" s="146"/>
+      <c r="N82" s="146"/>
+      <c r="O82" s="147"/>
+      <c r="P82" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="Q82" s="120"/>
-      <c r="R82" s="120">
+      <c r="Q82" s="144"/>
+      <c r="R82" s="144">
         <v>1</v>
       </c>
-      <c r="S82" s="120"/>
-      <c r="T82" s="121"/>
-      <c r="U82" s="121"/>
-    </row>
-    <row r="83" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S82" s="144"/>
+      <c r="T82" s="128"/>
+      <c r="U82" s="128"/>
+    </row>
+    <row r="83" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="22"/>
       <c r="B83" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L83" s="47" t="s">
         <v>62</v>
       </c>
       <c r="M83" s="48"/>
-      <c r="P83" s="120" t="s">
+      <c r="P83" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q83" s="144"/>
+      <c r="R83" s="144">
+        <v>5</v>
+      </c>
+      <c r="S83" s="144"/>
+      <c r="T83" s="128"/>
+      <c r="U83" s="128"/>
+    </row>
+    <row r="84" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="22"/>
+      <c r="B84" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="149"/>
+      <c r="D84" s="149"/>
+      <c r="E84" s="149"/>
+      <c r="F84" s="149"/>
+      <c r="G84" s="149"/>
+      <c r="H84" s="149"/>
+      <c r="I84" s="149"/>
+      <c r="J84" s="149"/>
+      <c r="K84" s="149"/>
+      <c r="L84" s="149"/>
+      <c r="M84" s="149"/>
+      <c r="N84" s="149"/>
+      <c r="O84" s="150"/>
+      <c r="P84" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="Q83" s="120"/>
-      <c r="R83" s="120">
-        <v>5</v>
-      </c>
-      <c r="S83" s="120"/>
-      <c r="T83" s="121"/>
-      <c r="U83" s="121"/>
-    </row>
-    <row r="84" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="124"/>
-      <c r="I84" s="124"/>
-      <c r="J84" s="124"/>
-      <c r="K84" s="124"/>
-      <c r="L84" s="124"/>
-      <c r="M84" s="124"/>
-      <c r="N84" s="124"/>
-      <c r="O84" s="125"/>
-      <c r="P84" s="126" t="s">
+      <c r="Q84" s="144"/>
+      <c r="R84" s="144">
+        <v>5</v>
+      </c>
+      <c r="S84" s="144"/>
+      <c r="T84" s="128"/>
+      <c r="U84" s="128"/>
+    </row>
+    <row r="85" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="21"/>
+      <c r="B85" s="171" t="str">
+        <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E12*(D89+D90)/8*1.1)," µL of P into each well of column 6 of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G12+1)*(D89+D90)*1.1)," µL of P into first ",H12," wells and ",FIXED((G12)*(D89+D90)*1.1)," µL into the other wells of MM plate column 6")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E13*(D89+D90)/8*1.1)," µL of P into each well of row F of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G13+1)*(D89+D90)*1.1)," µL of P into first ",H13," wells and ",FIXED((G13)*(D89+D90)*1.1)," µL into the other wells of MM plate row F")) )</f>
+        <v>Prepare Mastermix (P) according to the following table and pipet 26.40 µL of P into first 10 wells and 22.00 µL into the other wells of MM plate row F</v>
+      </c>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
+      <c r="G85" s="172"/>
+      <c r="H85" s="172"/>
+      <c r="I85" s="172"/>
+      <c r="J85" s="172"/>
+      <c r="K85" s="172"/>
+      <c r="L85" s="172"/>
+      <c r="M85" s="172"/>
+      <c r="N85" s="172"/>
+      <c r="O85" s="173"/>
+      <c r="P85" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="Q84" s="120"/>
-      <c r="R84" s="120">
-        <v>5</v>
-      </c>
-      <c r="S84" s="120"/>
-      <c r="T84" s="121"/>
-      <c r="U84" s="121"/>
-    </row>
-    <row r="85" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="98" t="str">
-        <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E12*(D88+D89)/8*1.1)," µL of P into each well of column 6 of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G12+1)*(D88+D89)*1.1)," µL of P into first ",H12," wells and ",FIXED((G12)*(D88+D89)*1.1)," µL into the other wells of MM plate column 6")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E13*(D88+D89)/8*1.1)," µL of P into each well of column 6 of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G13+1)*(D88+D89)*1.1)," µL of P into first ",H13," wells and ",FIXED((G13)*(D88+D89)*1.1)," µL into the other wells of MM plate column 6")) )</f>
-        <v>Prepare Mastermix (P) according to the following table and pipet 0.00 µL of P into each well of column 6 of MM plate</v>
-      </c>
-      <c r="C85" s="99"/>
-      <c r="D85" s="99"/>
-      <c r="E85" s="99"/>
-      <c r="F85" s="99"/>
-      <c r="G85" s="99"/>
-      <c r="H85" s="99"/>
-      <c r="I85" s="99"/>
-      <c r="J85" s="99"/>
-      <c r="K85" s="99"/>
-      <c r="L85" s="99"/>
-      <c r="M85" s="99"/>
-      <c r="N85" s="99"/>
-      <c r="O85" s="100"/>
-      <c r="P85" s="122" t="s">
+      <c r="Q85" s="152"/>
+      <c r="R85" s="144">
+        <v>0.03</v>
+      </c>
+      <c r="S85" s="144"/>
+      <c r="T85" s="128"/>
+      <c r="U85" s="128"/>
+    </row>
+    <row r="86" spans="1:28" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="21"/>
+      <c r="B86" s="178" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="179"/>
+      <c r="D86" s="179"/>
+      <c r="E86" s="179"/>
+      <c r="F86" s="179"/>
+      <c r="G86" s="179"/>
+      <c r="H86" s="179"/>
+      <c r="I86" s="179"/>
+      <c r="J86" s="179"/>
+      <c r="K86" s="179"/>
+      <c r="L86" s="179"/>
+      <c r="M86" s="179"/>
+      <c r="N86" s="179"/>
+      <c r="O86" s="179"/>
+      <c r="P86" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="Q85" s="122"/>
-      <c r="R85" s="120">
-        <v>0.03</v>
-      </c>
-      <c r="S85" s="120"/>
-      <c r="T85" s="121"/>
-      <c r="U85" s="121"/>
-    </row>
-    <row r="86" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="86"/>
-      <c r="E86" s="14" t="s">
+      <c r="Q86" s="152"/>
+      <c r="R86" s="144">
+        <v>15.27</v>
+      </c>
+      <c r="S86" s="144"/>
+      <c r="T86" s="128"/>
+      <c r="U86" s="128"/>
+    </row>
+    <row r="87" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="22"/>
+      <c r="B87" s="86"/>
+      <c r="E87" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P86" s="120" t="s">
+      <c r="P87" s="144" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q87" s="144"/>
+      <c r="R87" s="144">
+        <v>1.7</v>
+      </c>
+      <c r="S87" s="144"/>
+      <c r="T87" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="Q86" s="120"/>
-      <c r="R86" s="120">
-        <v>15.27</v>
-      </c>
-      <c r="S86" s="120"/>
-      <c r="T86" s="121"/>
-      <c r="U86" s="121"/>
-    </row>
-    <row r="87" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="C87" s="49" t="s">
+      <c r="U87" s="128"/>
+    </row>
+    <row r="88" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="22"/>
+      <c r="C88" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="50">
+      <c r="D88" s="50">
         <v>8.5</v>
       </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="P87" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q87" s="120"/>
-      <c r="R87" s="120">
-        <v>1.7</v>
-      </c>
-      <c r="S87" s="120"/>
-      <c r="T87" s="121" t="s">
-        <v>135</v>
-      </c>
-      <c r="U87" s="121"/>
-    </row>
-    <row r="88" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="22"/>
-      <c r="C88" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="50">
-        <v>3.5</v>
-      </c>
-      <c r="E88" s="50">
-        <f>D88*E13*1.1</f>
-        <v>0</v>
-      </c>
+      <c r="E88" s="50"/>
       <c r="F88" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="P88" s="120" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q88" s="120"/>
-      <c r="R88" s="120">
+      <c r="P88" s="144" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q88" s="144"/>
+      <c r="R88" s="144">
         <v>33.299999999999997</v>
       </c>
-      <c r="S88" s="120"/>
-      <c r="T88" s="121"/>
-      <c r="U88" s="121"/>
-    </row>
-    <row r="89" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S88" s="144"/>
+      <c r="T88" s="128"/>
+      <c r="U88" s="128"/>
+    </row>
+    <row r="89" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="22"/>
       <c r="C89" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E89" s="30">
+        <v>37</v>
+      </c>
+      <c r="D89" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="E89" s="50">
         <f>D89*E13*1.1</f>
-        <v>0</v>
+        <v>269.5</v>
       </c>
       <c r="F89" s="56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="22"/>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E90" s="30">
+        <f>D90*E13*1.1</f>
+        <v>38.5</v>
+      </c>
+      <c r="F90" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="22"/>
+      <c r="C91" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="33">
-        <v>5</v>
-      </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="82" t="s">
+      <c r="D91" s="33">
+        <v>5</v>
+      </c>
+      <c r="E91" s="33"/>
+      <c r="F91" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="36">
-        <f>SUM(D87:D90)</f>
+    <row r="92" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="22"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="36">
+        <f>SUM(D88:D91)</f>
         <v>17.5</v>
       </c>
-      <c r="E91" s="40">
-        <f>SUM(E88:E89)</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="85" t="s">
+      <c r="E92" s="40">
+        <f>SUM(E89:E90)</f>
+        <v>308</v>
+      </c>
+      <c r="F92" s="85" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="42" t="s">
+    <row r="93" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="51"/>
+      <c r="B93" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G93" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="48"/>
-    </row>
-    <row r="93" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="24">
+      <c r="H93" s="48"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+    </row>
+    <row r="94" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24">
         <v>1</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D94" s="24">
         <v>2</v>
       </c>
-      <c r="E93" s="24">
+      <c r="E94" s="24">
         <v>3</v>
       </c>
-      <c r="F93" s="24">
+      <c r="F94" s="24">
         <v>4</v>
       </c>
-      <c r="G93" s="24">
-        <v>5</v>
-      </c>
-      <c r="H93" s="24">
+      <c r="G94" s="24">
+        <v>5</v>
+      </c>
+      <c r="H94" s="24">
         <v>6</v>
       </c>
-      <c r="I93" s="24">
+      <c r="I94" s="24">
         <v>7</v>
       </c>
-      <c r="J93" s="24">
+      <c r="J94" s="24">
         <v>8</v>
       </c>
-      <c r="K93" s="24">
+      <c r="K94" s="24">
         <v>9</v>
       </c>
-      <c r="L93" s="24">
+      <c r="L94" s="24">
         <v>10</v>
       </c>
-      <c r="M93" s="24">
+      <c r="M94" s="24">
         <v>11</v>
       </c>
-      <c r="N93" s="24">
+      <c r="N94" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="22"/>
-      <c r="B94" s="25" t="s">
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+    </row>
+    <row r="95" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="22"/>
+      <c r="B95" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$2,prep_table!$A$2)</f>
-        <v>1</v>
-      </c>
-      <c r="D94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$3,prep_table!$A$10)</f>
-        <v>9</v>
-      </c>
-      <c r="E94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$4,prep_table!$A$18)</f>
-        <v>17</v>
-      </c>
-      <c r="F94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$5,prep_table!$A$26)</f>
-        <v>25</v>
-      </c>
-      <c r="G94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$6,prep_table!$A$34)</f>
-        <v>33</v>
-      </c>
-      <c r="H94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$7,prep_table!$A$42)</f>
-        <v>41</v>
-      </c>
-      <c r="I94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$8,prep_table!$A$50)</f>
-        <v>49</v>
-      </c>
-      <c r="J94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$9,prep_table!$A$58)</f>
-        <v>57</v>
-      </c>
-      <c r="K94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$10,prep_table!$A$66)</f>
-        <v>65</v>
-      </c>
-      <c r="L94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$11,prep_table!$A$74)</f>
-        <v>73</v>
-      </c>
-      <c r="M94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$12,prep_table!$A$82)</f>
-        <v>81</v>
-      </c>
-      <c r="N94" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$13,prep_table!$A$90)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="25" t="s">
+      <c r="C95" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$2,prep_table!$C$2))</f>
+        <v/>
+      </c>
+      <c r="D95" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$3,prep_table!$C$10))</f>
+        <v/>
+      </c>
+      <c r="E95" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$4,prep_table!$C$18))</f>
+        <v/>
+      </c>
+      <c r="F95" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$5,prep_table!$C$26))</f>
+        <v/>
+      </c>
+      <c r="G95" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$6,prep_table!$C$34))</f>
+        <v/>
+      </c>
+      <c r="H95" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$7,prep_table!$C$42))</f>
+        <v/>
+      </c>
+      <c r="I95" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$8,prep_table!$C$50))</f>
+        <v/>
+      </c>
+      <c r="J95" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$9,prep_table!$C$58))</f>
+        <v/>
+      </c>
+      <c r="K95" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$10,prep_table!$C$66))</f>
+        <v/>
+      </c>
+      <c r="L95" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$11,prep_table!$C$74))</f>
+        <v/>
+      </c>
+      <c r="M95" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$12,prep_table!$C$82))</f>
+        <v/>
+      </c>
+      <c r="N95" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$13,prep_table!$C$90))</f>
+        <v/>
+      </c>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+    </row>
+    <row r="96" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$14,prep_table!$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="D95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$15,prep_table!$A$11)</f>
-        <v>10</v>
-      </c>
-      <c r="E95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$16,prep_table!$A$19)</f>
-        <v>18</v>
-      </c>
-      <c r="F95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$17,prep_table!$A$27)</f>
-        <v>26</v>
-      </c>
-      <c r="G95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$18,prep_table!$A$35)</f>
-        <v>34</v>
-      </c>
-      <c r="H95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$19,prep_table!$A$43)</f>
-        <v>42</v>
-      </c>
-      <c r="I95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$20,prep_table!$A$51)</f>
-        <v>50</v>
-      </c>
-      <c r="J95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$21,prep_table!$A$59)</f>
+      <c r="C96" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$14,prep_table!$C$3))</f>
+        <v/>
+      </c>
+      <c r="D96" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$15,prep_table!$C$11))</f>
+        <v/>
+      </c>
+      <c r="E96" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$16,prep_table!$C$19))</f>
+        <v/>
+      </c>
+      <c r="F96" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$17,prep_table!$C$27))</f>
+        <v/>
+      </c>
+      <c r="G96" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$18,prep_table!$C$35))</f>
+        <v/>
+      </c>
+      <c r="H96" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$19,prep_table!$C$43))</f>
+        <v/>
+      </c>
+      <c r="I96" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$20,prep_table!$C$51))</f>
+        <v/>
+      </c>
+      <c r="J96" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$21,prep_table!$C$59))</f>
+        <v/>
+      </c>
+      <c r="K96" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$22,prep_table!$C$67))</f>
+        <v/>
+      </c>
+      <c r="L96" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$23,prep_table!$C$75))</f>
+        <v/>
+      </c>
+      <c r="M96" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$24,prep_table!$C$83))</f>
+        <v/>
+      </c>
+      <c r="N96" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$25,prep_table!$C$91))</f>
+        <v/>
+      </c>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+    </row>
+    <row r="97" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$26,prep_table!$C$4))</f>
+        <v/>
+      </c>
+      <c r="D97" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$27,prep_table!$C$12))</f>
+        <v/>
+      </c>
+      <c r="E97" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$28,prep_table!$C$20))</f>
+        <v/>
+      </c>
+      <c r="F97" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$29,prep_table!$C$28))</f>
+        <v/>
+      </c>
+      <c r="G97" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$30,prep_table!$C$36))</f>
+        <v/>
+      </c>
+      <c r="H97" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$31,prep_table!$C$44))</f>
+        <v/>
+      </c>
+      <c r="I97" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$32,prep_table!$C$52))</f>
+        <v/>
+      </c>
+      <c r="J97" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$33,prep_table!$C$60))</f>
+        <v/>
+      </c>
+      <c r="K97" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$34,prep_table!$C$68))</f>
+        <v/>
+      </c>
+      <c r="L97" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$35,prep_table!$C$76))</f>
+        <v/>
+      </c>
+      <c r="M97" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$36,prep_table!$C$84))</f>
+        <v/>
+      </c>
+      <c r="N97" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$37,prep_table!$C$92))</f>
+        <v/>
+      </c>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+    </row>
+    <row r="98" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$38,prep_table!$C$5))</f>
+        <v/>
+      </c>
+      <c r="D98" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$39,prep_table!$C$13))</f>
+        <v/>
+      </c>
+      <c r="E98" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$40,prep_table!$C$21))</f>
+        <v/>
+      </c>
+      <c r="F98" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$41,prep_table!$C$29))</f>
+        <v/>
+      </c>
+      <c r="G98" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$42,prep_table!$C$37))</f>
+        <v/>
+      </c>
+      <c r="H98" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$43,prep_table!$C$45))</f>
+        <v/>
+      </c>
+      <c r="I98" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$44,prep_table!$C$53))</f>
+        <v/>
+      </c>
+      <c r="J98" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$45,prep_table!$C$61))</f>
+        <v/>
+      </c>
+      <c r="K98" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$46,prep_table!$C$69))</f>
+        <v/>
+      </c>
+      <c r="L98" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$47,prep_table!$C$77))</f>
+        <v/>
+      </c>
+      <c r="M98" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$48,prep_table!$C$85))</f>
+        <v/>
+      </c>
+      <c r="N98" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$49,prep_table!$C$93))</f>
+        <v/>
+      </c>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+    </row>
+    <row r="99" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$50,prep_table!$C$6))</f>
+        <v/>
+      </c>
+      <c r="D99" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$51,prep_table!$C$14))</f>
+        <v/>
+      </c>
+      <c r="E99" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$52,prep_table!$C$22))</f>
+        <v/>
+      </c>
+      <c r="F99" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$53,prep_table!$C$30))</f>
+        <v/>
+      </c>
+      <c r="G99" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$54,prep_table!$C$38))</f>
+        <v/>
+      </c>
+      <c r="H99" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$55,prep_table!$C$46))</f>
+        <v/>
+      </c>
+      <c r="I99" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$56,prep_table!$C$54))</f>
+        <v/>
+      </c>
+      <c r="J99" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$57,prep_table!$C$62))</f>
+        <v/>
+      </c>
+      <c r="K99" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$58,prep_table!$C$70))</f>
+        <v/>
+      </c>
+      <c r="L99" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$59,prep_table!$C$78))</f>
+        <v/>
+      </c>
+      <c r="M99" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$60,prep_table!$C$86))</f>
+        <v/>
+      </c>
+      <c r="N99" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$61,prep_table!$C$94))</f>
+        <v/>
+      </c>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+    </row>
+    <row r="100" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$62,prep_table!$C$7))</f>
+        <v/>
+      </c>
+      <c r="D100" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$63,prep_table!$C$15))</f>
+        <v/>
+      </c>
+      <c r="E100" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$64,prep_table!$C$23))</f>
+        <v/>
+      </c>
+      <c r="F100" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$65,prep_table!$C$31))</f>
+        <v/>
+      </c>
+      <c r="G100" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$66,prep_table!$C$39))</f>
+        <v/>
+      </c>
+      <c r="H100" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$67,prep_table!$C$47))</f>
+        <v/>
+      </c>
+      <c r="I100" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$68,prep_table!$C$55))</f>
+        <v/>
+      </c>
+      <c r="J100" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$69,prep_table!$C$63))</f>
+        <v/>
+      </c>
+      <c r="K100" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$70,prep_table!$C$71))</f>
+        <v/>
+      </c>
+      <c r="L100" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$71,prep_table!$C$79))</f>
+        <v/>
+      </c>
+      <c r="M100" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$72,prep_table!$C$87))</f>
+        <v/>
+      </c>
+      <c r="N100" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$73,prep_table!$C$95))</f>
+        <v/>
+      </c>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+    </row>
+    <row r="101" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$74,prep_table!$C$8))</f>
+        <v/>
+      </c>
+      <c r="D101" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$75,prep_table!$C$16))</f>
+        <v/>
+      </c>
+      <c r="E101" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$76,prep_table!$C$24))</f>
+        <v/>
+      </c>
+      <c r="F101" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$77,prep_table!$C$32))</f>
+        <v/>
+      </c>
+      <c r="G101" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$78,prep_table!$C$40))</f>
+        <v/>
+      </c>
+      <c r="H101" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$79,prep_table!$C$48))</f>
+        <v/>
+      </c>
+      <c r="I101" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$80,prep_table!$C$56))</f>
+        <v/>
+      </c>
+      <c r="J101" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$81,prep_table!$C$64))</f>
+        <v/>
+      </c>
+      <c r="K101" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$82,prep_table!$C$72))</f>
+        <v/>
+      </c>
+      <c r="L101" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$83,prep_table!$C$80))</f>
+        <v/>
+      </c>
+      <c r="M101" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$84,prep_table!$C$88))</f>
+        <v/>
+      </c>
+      <c r="N101" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$85,prep_table!$C$96))</f>
+        <v/>
+      </c>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+    </row>
+    <row r="102" spans="1:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$86,prep_table!$C$9))</f>
+        <v/>
+      </c>
+      <c r="D102" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$87,prep_table!$C$17))</f>
+        <v/>
+      </c>
+      <c r="E102" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$88,prep_table!$C$25))</f>
+        <v/>
+      </c>
+      <c r="F102" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$89,prep_table!$C$33))</f>
+        <v/>
+      </c>
+      <c r="G102" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$90,prep_table!$C$41))</f>
+        <v/>
+      </c>
+      <c r="H102" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$91,prep_table!$C$49))</f>
+        <v/>
+      </c>
+      <c r="I102" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$92,prep_table!$C$57))</f>
+        <v/>
+      </c>
+      <c r="J102" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$93,prep_table!$C$65))</f>
+        <v/>
+      </c>
+      <c r="K102" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$94,prep_table!$C$73))</f>
+        <v/>
+      </c>
+      <c r="L102" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$95,prep_table!$C$81))</f>
+        <v/>
+      </c>
+      <c r="M102" s="26" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$96,prep_table!$C$89))</f>
+        <v/>
+      </c>
+      <c r="N102" s="27" t="str">
+        <f>IF(ISBLANK($H$93),"",IF(AND(ISNUMBER($E$13),ISNUMBER($H$93)),prep_table!$C$97,prep_table!$C$97))</f>
+        <v/>
+      </c>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+    </row>
+    <row r="103" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="21"/>
+      <c r="B103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$22,prep_table!$A$67)</f>
-        <v>66</v>
-      </c>
-      <c r="L95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$23,prep_table!$A$75)</f>
-        <v>74</v>
-      </c>
-      <c r="M95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$24,prep_table!$A$83)</f>
-        <v>82</v>
-      </c>
-      <c r="N95" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$25,prep_table!$A$91)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$26,prep_table!$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="D96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$27,prep_table!$A$12)</f>
-        <v>11</v>
-      </c>
-      <c r="E96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$28,prep_table!$A$20)</f>
-        <v>19</v>
-      </c>
-      <c r="F96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$29,prep_table!$A$28)</f>
-        <v>27</v>
-      </c>
-      <c r="G96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$30,prep_table!$A$36)</f>
-        <v>35</v>
-      </c>
-      <c r="H96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$31,prep_table!$A$44)</f>
-        <v>43</v>
-      </c>
-      <c r="I96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$32,prep_table!$A$52)</f>
-        <v>51</v>
-      </c>
-      <c r="J96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$33,prep_table!$A$60)</f>
-        <v>59</v>
-      </c>
-      <c r="K96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$34,prep_table!$A$68)</f>
-        <v>67</v>
-      </c>
-      <c r="L96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$35,prep_table!$A$76)</f>
-        <v>75</v>
-      </c>
-      <c r="M96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$36,prep_table!$A$84)</f>
-        <v>83</v>
-      </c>
-      <c r="N96" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$37,prep_table!$A$92)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$38,prep_table!$A$5)</f>
-        <v>4</v>
-      </c>
-      <c r="D97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$39,prep_table!$A$13)</f>
-        <v>12</v>
-      </c>
-      <c r="E97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$40,prep_table!$A$21)</f>
-        <v>20</v>
-      </c>
-      <c r="F97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$41,prep_table!$A$29)</f>
-        <v>28</v>
-      </c>
-      <c r="G97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$42,prep_table!$A$37)</f>
-        <v>36</v>
-      </c>
-      <c r="H97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$43,prep_table!$A$45)</f>
-        <v>44</v>
-      </c>
-      <c r="I97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$43,prep_table!$A$53)</f>
-        <v>52</v>
-      </c>
-      <c r="J97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$44,prep_table!$A$61)</f>
-        <v>60</v>
-      </c>
-      <c r="K97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$45,prep_table!$A$69)</f>
-        <v>68</v>
-      </c>
-      <c r="L97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$46,prep_table!$A$77)</f>
-        <v>76</v>
-      </c>
-      <c r="M97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$47,prep_table!$A$85)</f>
-        <v>84</v>
-      </c>
-      <c r="N97" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$48,prep_table!$A$93)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$50,prep_table!$A$6)</f>
-        <v>5</v>
-      </c>
-      <c r="D98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$50,prep_table!$A$14)</f>
-        <v>13</v>
-      </c>
-      <c r="E98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$51,prep_table!$A$22)</f>
-        <v>21</v>
-      </c>
-      <c r="F98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$52,prep_table!$A$30)</f>
-        <v>29</v>
-      </c>
-      <c r="G98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$53,prep_table!$A$38)</f>
-        <v>37</v>
-      </c>
-      <c r="H98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$54,prep_table!$A$46)</f>
-        <v>45</v>
-      </c>
-      <c r="I98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$55,prep_table!$A$54)</f>
-        <v>53</v>
-      </c>
-      <c r="J98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$56,prep_table!$A$62)</f>
-        <v>61</v>
-      </c>
-      <c r="K98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$57,prep_table!$A$70)</f>
-        <v>69</v>
-      </c>
-      <c r="L98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$58,prep_table!$A$78)</f>
-        <v>77</v>
-      </c>
-      <c r="M98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$59,prep_table!$A$86)</f>
-        <v>85</v>
-      </c>
-      <c r="N98" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$60,prep_table!$A$94)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$62,prep_table!$A$7)</f>
-        <v>6</v>
-      </c>
-      <c r="D99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$62,prep_table!$A$15)</f>
-        <v>14</v>
-      </c>
-      <c r="E99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$63,prep_table!$A$23)</f>
-        <v>22</v>
-      </c>
-      <c r="F99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$64,prep_table!$A$31)</f>
-        <v>30</v>
-      </c>
-      <c r="G99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$65,prep_table!$A$39)</f>
-        <v>38</v>
-      </c>
-      <c r="H99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$66,prep_table!$A$47)</f>
-        <v>46</v>
-      </c>
-      <c r="I99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$67,prep_table!$A$55)</f>
-        <v>54</v>
-      </c>
-      <c r="J99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$68,prep_table!$A$63)</f>
-        <v>62</v>
-      </c>
-      <c r="K99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$69,prep_table!$A$71)</f>
-        <v>70</v>
-      </c>
-      <c r="L99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$70,prep_table!$A$79)</f>
-        <v>78</v>
-      </c>
-      <c r="M99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$71,prep_table!$A$87)</f>
-        <v>86</v>
-      </c>
-      <c r="N99" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$71,prep_table!$A$95)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$74,prep_table!$A$8)</f>
-        <v>7</v>
-      </c>
-      <c r="D100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$74,prep_table!$A$16)</f>
-        <v>15</v>
-      </c>
-      <c r="E100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$75,prep_table!$A$24)</f>
-        <v>23</v>
-      </c>
-      <c r="F100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$78,prep_table!$A$32)</f>
-        <v>31</v>
-      </c>
-      <c r="G100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$79,prep_table!$A$40)</f>
-        <v>39</v>
-      </c>
-      <c r="H100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$80,prep_table!$A$48)</f>
-        <v>47</v>
-      </c>
-      <c r="I100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$81,prep_table!$A$56)</f>
-        <v>55</v>
-      </c>
-      <c r="J100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$82,prep_table!$A$64)</f>
-        <v>63</v>
-      </c>
-      <c r="K100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$83,prep_table!$A$72)</f>
-        <v>71</v>
-      </c>
-      <c r="L100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$84,prep_table!$A$80)</f>
-        <v>79</v>
-      </c>
-      <c r="M100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$85,prep_table!$A$88)</f>
-        <v>87</v>
-      </c>
-      <c r="N100" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$86,prep_table!$A$96)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$86,prep_table!$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$87,prep_table!$A$17)</f>
-        <v>16</v>
-      </c>
-      <c r="E101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$88,prep_table!$A$25)</f>
-        <v>24</v>
-      </c>
-      <c r="F101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$89,prep_table!$A$33)</f>
-        <v>32</v>
-      </c>
-      <c r="G101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$90,prep_table!$A$41)</f>
+      <c r="F103" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+    </row>
+    <row r="104" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="22"/>
+      <c r="F104" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$91,prep_table!$A$49)</f>
-        <v>48</v>
-      </c>
-      <c r="I101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$92,prep_table!$A$57)</f>
-        <v>56</v>
-      </c>
-      <c r="J101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$93,prep_table!$A$65)</f>
-        <v>64</v>
-      </c>
-      <c r="K101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$94,prep_table!$A$73)</f>
-        <v>72</v>
-      </c>
-      <c r="L101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$95,prep_table!$A$81)</f>
-        <v>80</v>
-      </c>
-      <c r="M101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$96,prep_table!$A$89)</f>
-        <v>88</v>
-      </c>
-      <c r="N101" s="52">
-        <f>IF(ISNUMBER($E$13),prep_table!$A$97,prep_table!$A$97)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F102" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="22"/>
-      <c r="F103" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="G103" s="111" t="str">
+      <c r="G104" s="154" t="str">
         <f>IF(M83&gt;0,CONCATENATE(M83," cycles"),"___cycles")</f>
         <v>___cycles</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="22"/>
-      <c r="F104" s="88" t="s">
+    <row r="105" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="22"/>
+      <c r="F105" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G105" s="155"/>
+    </row>
+    <row r="106" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="22"/>
+      <c r="F106" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106" s="156"/>
+    </row>
+    <row r="107" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="22"/>
+      <c r="F107" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G104" s="112"/>
-    </row>
-    <row r="105" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="22"/>
-      <c r="F105" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" s="113"/>
-    </row>
-    <row r="106" spans="1:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="22"/>
-      <c r="F106" s="38" t="s">
+    </row>
+    <row r="108" spans="1:28" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F108" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109"/>
+      <c r="B109" s="157" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F107" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108" s="114" t="s">
+      <c r="C109" s="158"/>
+      <c r="D109" s="158"/>
+      <c r="E109" s="158"/>
+      <c r="F109" s="158"/>
+      <c r="G109" s="158"/>
+      <c r="H109" s="158"/>
+      <c r="I109" s="158"/>
+      <c r="J109" s="158"/>
+      <c r="K109" s="158"/>
+      <c r="L109" s="158"/>
+      <c r="M109" s="158"/>
+      <c r="N109" s="158"/>
+      <c r="O109" s="159"/>
+    </row>
+    <row r="110" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="21"/>
+      <c r="B110" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C108" s="115"/>
-      <c r="D108" s="115"/>
-      <c r="E108" s="115"/>
-      <c r="F108" s="115"/>
-      <c r="G108" s="115"/>
-      <c r="H108" s="115"/>
-      <c r="I108" s="115"/>
-      <c r="J108" s="115"/>
-      <c r="K108" s="115"/>
-      <c r="L108" s="115"/>
-      <c r="M108" s="115"/>
-      <c r="N108" s="115"/>
-      <c r="O108" s="116"/>
-    </row>
-    <row r="109" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="B109" s="13" t="s">
+      <c r="F110" s="43"/>
+      <c r="K110" s="90"/>
+    </row>
+    <row r="111" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="91"/>
+      <c r="B111" s="160" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" s="161"/>
+      <c r="D111" s="161"/>
+      <c r="E111" s="161"/>
+      <c r="F111" s="161"/>
+      <c r="G111" s="161"/>
+      <c r="H111" s="161"/>
+      <c r="I111" s="161"/>
+      <c r="J111" s="161"/>
+      <c r="K111" s="161"/>
+      <c r="L111" s="161"/>
+      <c r="M111" s="161"/>
+      <c r="N111" s="161"/>
+      <c r="O111" s="162"/>
+    </row>
+    <row r="112" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="23"/>
+      <c r="C113" s="24">
+        <v>1</v>
+      </c>
+      <c r="D113" s="24">
+        <v>2</v>
+      </c>
+      <c r="E113" s="24">
+        <v>3</v>
+      </c>
+      <c r="F113" s="24">
+        <v>4</v>
+      </c>
+      <c r="G113" s="24">
+        <v>5</v>
+      </c>
+      <c r="H113" s="24">
+        <v>6</v>
+      </c>
+      <c r="I113" s="24">
+        <v>7</v>
+      </c>
+      <c r="J113" s="24">
+        <v>8</v>
+      </c>
+      <c r="K113" s="24">
+        <v>9</v>
+      </c>
+      <c r="L113" s="24">
+        <v>10</v>
+      </c>
+      <c r="M113" s="24">
+        <v>11</v>
+      </c>
+      <c r="N113" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$2,prep_table!$AC$2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D114" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$3,prep_table!$AC$10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E114" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$4,prep_table!$AC$18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F114" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$5,prep_table!$AC$26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G114" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$6,prep_table!$AC$34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H114" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$7,prep_table!$AC$42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I114" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$8,prep_table!$AC$50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J114" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$9,prep_table!$AC$58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K114" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$10,prep_table!$AC$66)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L114" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$11,prep_table!$AC$74)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M114" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$12,prep_table!$AC$82)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N114" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$13,prep_table!$AC$90)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$14,prep_table!$AC$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D115" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$15,prep_table!$AC$11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E115" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$16,prep_table!$AC$19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F115" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$17,prep_table!$AC$27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G115" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$18,prep_table!$AC$35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H115" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$19,prep_table!$AC$43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I115" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$20,prep_table!$AC$51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J115" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$21,prep_table!$AC$59)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K115" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$22,prep_table!$AC$67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L115" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$23,prep_table!$AC$75)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M115" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$24,prep_table!$AC$83)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N115" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$25,prep_table!$AC$91)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$26,prep_table!$AC$4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D116" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$27,prep_table!$AC$12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E116" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$28,prep_table!$AC$20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F116" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$29,prep_table!$AC$28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G116" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$30,prep_table!$AC$36)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H116" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$31,prep_table!$AC$44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I116" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$32,prep_table!$AC$52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J116" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$33,prep_table!$AC$60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K116" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$34,prep_table!$AC$68)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L116" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$35,prep_table!$AC$76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M116" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$36,prep_table!$AC$84)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N116" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$37,prep_table!$AC$92)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$38,prep_table!$AC$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D117" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$39,prep_table!$AC$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E117" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$40,prep_table!$AC$21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F117" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$41,prep_table!$AC$29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G117" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$42,prep_table!$AC$37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H117" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$43,prep_table!$AC$45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I117" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$44,prep_table!$AC$53)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J117" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$45,prep_table!$AC$61)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K117" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$46,prep_table!$AC$69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L117" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$47,prep_table!$AC$77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M117" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$48,prep_table!$AC$85)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N117" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$49,prep_table!$AC$93)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$50,prep_table!$AC$6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D118" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$51,prep_table!$AC$14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E118" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$52,prep_table!$AC$22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F118" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$53,prep_table!$AC$30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G118" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$54,prep_table!$AC$38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H118" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$55,prep_table!$AC$46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I118" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$56,prep_table!$AC$54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J118" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$57,prep_table!$AC$62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K118" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$58,prep_table!$AC$70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L118" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$59,prep_table!$AC$78)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M118" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$60,prep_table!$AC$86)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N118" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$61,prep_table!$AC$94)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$62,prep_table!$AC$7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D119" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$63,prep_table!$AC$15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E119" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$64,prep_table!$AC$23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F119" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$65,prep_table!$AC$31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G119" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$66,prep_table!$AC$39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H119" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$67,prep_table!$AC$47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I119" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$68,prep_table!$AC$55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J119" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$69,prep_table!$AC$63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K119" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$70,prep_table!$AC$71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L119" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$71,prep_table!$AC$79)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M119" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$72,prep_table!$AC$87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N119" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$73,prep_table!$AC$95)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$74,prep_table!$AC$8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D120" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$75,prep_table!$AC$16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E120" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$76,prep_table!$AC$24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F120" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$77,prep_table!$AC$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G120" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$78,prep_table!$AC$40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H120" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$79,prep_table!$AC$48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I120" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$80,prep_table!$AC$56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J120" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$81,prep_table!$AC$64)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K120" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$82,prep_table!$AC$72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L120" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$83,prep_table!$AC$80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M120" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$84,prep_table!$AC$88)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N120" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$85,prep_table!$AC$96)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$86,prep_table!$AC$9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D121" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$87,prep_table!$AC$17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E121" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$88,prep_table!$AC$25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F121" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$89,prep_table!$AC$33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G121" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$90,prep_table!$AC$41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H121" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$91,prep_table!$AC$49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I121" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$92,prep_table!$AC$57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J121" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$93,prep_table!$AC$65)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K121" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$94,prep_table!$AC$73)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L121" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$95,prep_table!$AC$81)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M121" s="26" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$96,prep_table!$AC$89)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N121" s="27" t="e">
+        <f>IF(ISNUMBER($E$13),prep_table!$AC$97,prep_table!$AC$97)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="44"/>
+      <c r="B122" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="F109" s="43"/>
-      <c r="K109" s="90"/>
-    </row>
-    <row r="110" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="91"/>
-      <c r="B110" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="118"/>
-      <c r="D110" s="118"/>
-      <c r="E110" s="118"/>
-      <c r="F110" s="118"/>
-      <c r="G110" s="118"/>
-      <c r="H110" s="118"/>
-      <c r="I110" s="118"/>
-      <c r="J110" s="118"/>
-      <c r="K110" s="118"/>
-      <c r="L110" s="118"/>
-      <c r="M110" s="118"/>
-      <c r="N110" s="118"/>
-      <c r="O110" s="119"/>
-    </row>
-    <row r="111" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="23"/>
-      <c r="C112" s="24">
-        <v>1</v>
-      </c>
-      <c r="D112" s="24">
-        <v>2</v>
-      </c>
-      <c r="E112" s="24">
-        <v>3</v>
-      </c>
-      <c r="F112" s="24">
-        <v>4</v>
-      </c>
-      <c r="G112" s="24">
-        <v>5</v>
-      </c>
-      <c r="H112" s="24">
-        <v>6</v>
-      </c>
-      <c r="I112" s="24">
-        <v>7</v>
-      </c>
-      <c r="J112" s="24">
-        <v>8</v>
-      </c>
-      <c r="K112" s="24">
-        <v>9</v>
-      </c>
-      <c r="L112" s="24">
-        <v>10</v>
-      </c>
-      <c r="M112" s="24">
-        <v>11</v>
-      </c>
-      <c r="N112" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$2,prep_table!$AC$2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$3,prep_table!$AC$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$4,prep_table!$AC$18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$5,prep_table!$AC$26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$6,prep_table!$AC$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$7,prep_table!$AC$42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$8,prep_table!$AC$50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$9,prep_table!$AC$58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$10,prep_table!$AC$66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$11,prep_table!$AC$74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$12,prep_table!$AC$82)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N113" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$13,prep_table!$AC$90)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$14,prep_table!$AC$3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$15,prep_table!$AC$11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$16,prep_table!$AC$19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$17,prep_table!$AC$27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$18,prep_table!$AC$35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$19,prep_table!$AC$43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$20,prep_table!$AC$51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$21,prep_table!$AC$59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$22,prep_table!$AC$67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$23,prep_table!$AC$75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$24,prep_table!$AC$83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N114" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$25,prep_table!$AC$91)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$26,prep_table!$AC$4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$27,prep_table!$AC$12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$28,prep_table!$AC$20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$29,prep_table!$AC$28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$30,prep_table!$AC$36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$31,prep_table!$AC$44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$32,prep_table!$AC$52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$33,prep_table!$AC$60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$34,prep_table!$AC$68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$35,prep_table!$AC$76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$36,prep_table!$AC$84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N115" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$37,prep_table!$AC$92)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$38,prep_table!$AC$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$39,prep_table!$AC$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$40,prep_table!$AC$21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$41,prep_table!$AC$29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$42,prep_table!$AC$37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$43,prep_table!$AC$45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$43,prep_table!$AC$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$44,prep_table!$AC$61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$45,prep_table!$AC$69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$46,prep_table!$AC$77)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$47,prep_table!$AC$85)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N116" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$48,prep_table!$AC$93)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$50,prep_table!$AC$6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$50,prep_table!$AC$14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$51,prep_table!$AC$22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$52,prep_table!$AC$30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$53,prep_table!$AC$38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$54,prep_table!$AC$46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$55,prep_table!$AC$54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$56,prep_table!$AC$62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$57,prep_table!$AC$70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$58,prep_table!$AC$78)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$59,prep_table!$AC$86)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N117" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$60,prep_table!$AC$94)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$62,prep_table!$AC$7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$62,prep_table!$AC$15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$63,prep_table!$AC$23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$64,prep_table!$AC$31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$65,prep_table!$AC$39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$66,prep_table!$AC$47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$67,prep_table!$AC$55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$68,prep_table!$AC$63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$69,prep_table!$AC$71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$70,prep_table!$AC$79)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$71,prep_table!$AC$87)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N118" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$71,prep_table!$AC$95)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$74,prep_table!$AC$8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$74,prep_table!$AC$16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$75,prep_table!$AC$24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$78,prep_table!$AC$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$79,prep_table!$AC$40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$80,prep_table!$AC$48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$81,prep_table!$AC$56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$82,prep_table!$AC$64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$83,prep_table!$AC$72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$84,prep_table!$AC$80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$85,prep_table!$AC$88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N119" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$86,prep_table!$AC$96)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$86,prep_table!$AC$9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$87,prep_table!$AC$17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$88,prep_table!$AC$25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$89,prep_table!$AC$33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$90,prep_table!$AC$41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$91,prep_table!$AC$49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$92,prep_table!$AC$57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$93,prep_table!$AC$65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$94,prep_table!$AC$73)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$95,prep_table!$AC$81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$96,prep_table!$AC$89)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N120" s="52" t="e">
-        <f>IF(ISNUMBER($E$13),prep_table!$AC$97,prep_table!$AC$97)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="44"/>
-      <c r="B121" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="C121" s="13"/>
-      <c r="E121" s="93"/>
-    </row>
-    <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
-      <c r="B122" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="42"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="D123" s="92"/>
-      <c r="E123" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="F123" s="92"/>
-      <c r="G123" s="13"/>
-    </row>
-    <row r="124" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="13"/>
+      <c r="E122" s="93"/>
+    </row>
+    <row r="123" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="44"/>
+      <c r="B123" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="42"/>
       <c r="B124" s="13"/>
       <c r="C124" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" s="92"/>
+      <c r="E124" s="92"/>
+      <c r="F124" s="92"/>
+      <c r="G124" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="42"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" s="13"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="F124" s="92"/>
-      <c r="G124" s="13"/>
-    </row>
-    <row r="125" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="42"/>
-      <c r="C125" s="104" t="s">
+    </row>
+    <row r="126" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="42"/>
+      <c r="C126" s="163" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126" s="163"/>
+      <c r="E126" s="163"/>
+      <c r="F126" s="163"/>
+      <c r="G126" s="163"/>
+      <c r="H126" s="163"/>
+      <c r="I126" s="163"/>
+      <c r="J126" s="163"/>
+      <c r="K126" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="D125" s="104"/>
-      <c r="E125" s="104"/>
-      <c r="F125" s="104"/>
-      <c r="G125" s="104"/>
-      <c r="H125" s="104"/>
-      <c r="I125" s="104"/>
-      <c r="J125" s="104"/>
-      <c r="K125" s="105" t="s">
+      <c r="L126" s="153"/>
+    </row>
+    <row r="127" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="42"/>
+      <c r="C127" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="L125" s="105"/>
-    </row>
-    <row r="126" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="42"/>
-      <c r="C126" s="104" t="s">
+      <c r="D127" s="163"/>
+      <c r="E127" s="163"/>
+      <c r="F127" s="163"/>
+      <c r="G127" s="163"/>
+      <c r="H127" s="163"/>
+      <c r="I127" s="163"/>
+      <c r="J127" s="163"/>
+      <c r="K127" s="153">
+        <v>191.96</v>
+      </c>
+      <c r="L127" s="153"/>
+    </row>
+    <row r="128" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="42"/>
+      <c r="C128" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="D126" s="104"/>
-      <c r="E126" s="104"/>
-      <c r="F126" s="104"/>
-      <c r="G126" s="104"/>
-      <c r="H126" s="104"/>
-      <c r="I126" s="104"/>
-      <c r="J126" s="104"/>
-      <c r="K126" s="105">
-        <v>191.96</v>
-      </c>
-      <c r="L126" s="105"/>
-    </row>
-    <row r="127" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="42"/>
-      <c r="C127" s="104" t="s">
+      <c r="D128" s="163"/>
+      <c r="E128" s="163"/>
+      <c r="F128" s="163"/>
+      <c r="G128" s="163"/>
+      <c r="H128" s="163"/>
+      <c r="I128" s="163"/>
+      <c r="J128" s="163"/>
+      <c r="K128" s="153">
+        <v>194.96</v>
+      </c>
+      <c r="L128" s="153"/>
+    </row>
+    <row r="129" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="42"/>
+      <c r="C129" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="D127" s="104"/>
-      <c r="E127" s="104"/>
-      <c r="F127" s="104"/>
-      <c r="G127" s="104"/>
-      <c r="H127" s="104"/>
-      <c r="I127" s="104"/>
-      <c r="J127" s="104"/>
-      <c r="K127" s="105">
-        <v>194.96</v>
-      </c>
-      <c r="L127" s="105"/>
-    </row>
-    <row r="128" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="42"/>
-      <c r="C128" s="104" t="s">
+      <c r="D129" s="163"/>
+      <c r="E129" s="163"/>
+      <c r="F129" s="163"/>
+      <c r="G129" s="163"/>
+      <c r="H129" s="163"/>
+      <c r="I129" s="163"/>
+      <c r="J129" s="163"/>
+      <c r="K129" s="153">
+        <v>195.96</v>
+      </c>
+      <c r="L129" s="153"/>
+    </row>
+    <row r="130" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="42"/>
+      <c r="C130" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="D128" s="104"/>
-      <c r="E128" s="104"/>
-      <c r="F128" s="104"/>
-      <c r="G128" s="104"/>
-      <c r="H128" s="104"/>
-      <c r="I128" s="104"/>
-      <c r="J128" s="104"/>
-      <c r="K128" s="105">
-        <v>195.96</v>
-      </c>
-      <c r="L128" s="105"/>
-    </row>
-    <row r="129" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="42"/>
-      <c r="C129" s="104" t="s">
+      <c r="D130" s="163"/>
+      <c r="E130" s="163"/>
+      <c r="F130" s="163"/>
+      <c r="G130" s="163"/>
+      <c r="H130" s="163"/>
+      <c r="I130" s="163"/>
+      <c r="J130" s="163"/>
+      <c r="K130" s="153">
+        <v>196.96</v>
+      </c>
+      <c r="L130" s="153"/>
+    </row>
+    <row r="131" spans="1:12" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="42"/>
+      <c r="C131" s="163" t="s">
         <v>148</v>
       </c>
-      <c r="D129" s="104"/>
-      <c r="E129" s="104"/>
-      <c r="F129" s="104"/>
-      <c r="G129" s="104"/>
-      <c r="H129" s="104"/>
-      <c r="I129" s="104"/>
-      <c r="J129" s="104"/>
-      <c r="K129" s="105">
-        <v>196.96</v>
-      </c>
-      <c r="L129" s="105"/>
-    </row>
-    <row r="130" spans="1:12" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="42"/>
-      <c r="C130" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="D130" s="104"/>
-      <c r="E130" s="104"/>
-      <c r="F130" s="104"/>
-      <c r="G130" s="104"/>
-      <c r="H130" s="104"/>
-      <c r="I130" s="104"/>
-      <c r="J130" s="104"/>
-      <c r="K130" s="105" t="str">
+      <c r="D131" s="163"/>
+      <c r="E131" s="163"/>
+      <c r="F131" s="163"/>
+      <c r="G131" s="163"/>
+      <c r="H131" s="163"/>
+      <c r="I131" s="163"/>
+      <c r="J131" s="163"/>
+      <c r="K131" s="153" t="str">
         <f>"081.96"</f>
         <v>081.96</v>
       </c>
-      <c r="L130" s="105"/>
-    </row>
-    <row r="133" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="106" t="s">
+      <c r="L131" s="153"/>
+    </row>
+    <row r="134" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C134" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="D133" s="106"/>
-      <c r="E133" s="106"/>
-      <c r="F133" s="101" t="s">
+      <c r="D134" s="174"/>
+      <c r="E134" s="174"/>
+      <c r="F134" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="G133" s="102"/>
-      <c r="H133" s="102"/>
-      <c r="I133" s="103"/>
-    </row>
-    <row r="134" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="107" t="s">
+      <c r="G134" s="165"/>
+      <c r="H134" s="165"/>
+      <c r="I134" s="166"/>
+    </row>
+    <row r="135" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C135" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="D134" s="107"/>
-      <c r="E134" s="107"/>
-      <c r="F134" s="101" t="s">
+      <c r="D135" s="170"/>
+      <c r="E135" s="170"/>
+      <c r="F135" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="G134" s="102"/>
-      <c r="H134" s="102"/>
-      <c r="I134" s="103"/>
-    </row>
-    <row r="135" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="107" t="s">
+      <c r="G135" s="165"/>
+      <c r="H135" s="165"/>
+      <c r="I135" s="166"/>
+    </row>
+    <row r="136" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="D135" s="107"/>
-      <c r="E135" s="107"/>
-      <c r="F135" s="101" t="s">
+      <c r="D136" s="170"/>
+      <c r="E136" s="170"/>
+      <c r="F136" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="G135" s="102"/>
-      <c r="H135" s="102"/>
-      <c r="I135" s="103"/>
-    </row>
-    <row r="136" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="101" t="s">
+      <c r="G136" s="165"/>
+      <c r="H136" s="165"/>
+      <c r="I136" s="166"/>
+    </row>
+    <row r="137" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C137" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="D136" s="102"/>
-      <c r="E136" s="103"/>
-      <c r="F136" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="G136" s="102"/>
-      <c r="H136" s="102"/>
-      <c r="I136" s="103"/>
-    </row>
-    <row r="137" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="101" t="s">
+      <c r="D137" s="165"/>
+      <c r="E137" s="166"/>
+      <c r="F137" s="164" t="s">
+        <v>161</v>
+      </c>
+      <c r="G137" s="165"/>
+      <c r="H137" s="165"/>
+      <c r="I137" s="166"/>
+    </row>
+    <row r="138" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C138" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="D137" s="102"/>
-      <c r="E137" s="103"/>
-      <c r="F137" s="101" t="s">
+      <c r="D138" s="165"/>
+      <c r="E138" s="166"/>
+      <c r="F138" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="G137" s="102"/>
-      <c r="H137" s="102"/>
-      <c r="I137" s="103"/>
-    </row>
-    <row r="138" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="101" t="s">
+      <c r="G138" s="165"/>
+      <c r="H138" s="165"/>
+      <c r="I138" s="166"/>
+    </row>
+    <row r="139" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C139" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="D138" s="102"/>
-      <c r="E138" s="103"/>
-      <c r="F138" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="G138" s="102"/>
-      <c r="H138" s="102"/>
-      <c r="I138" s="103"/>
-    </row>
-    <row r="139" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="101" t="s">
+      <c r="D139" s="165"/>
+      <c r="E139" s="166"/>
+      <c r="F139" s="164" t="s">
+        <v>149</v>
+      </c>
+      <c r="G139" s="165"/>
+      <c r="H139" s="165"/>
+      <c r="I139" s="166"/>
+    </row>
+    <row r="140" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C140" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="D139" s="102"/>
-      <c r="E139" s="103"/>
-      <c r="F139" s="101" t="s">
-        <v>152</v>
-      </c>
-      <c r="G139" s="102"/>
-      <c r="H139" s="102"/>
-      <c r="I139" s="103"/>
-    </row>
-    <row r="140" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="101" t="s">
+      <c r="D140" s="165"/>
+      <c r="E140" s="166"/>
+      <c r="F140" s="164" t="s">
+        <v>160</v>
+      </c>
+      <c r="G140" s="165"/>
+      <c r="H140" s="165"/>
+      <c r="I140" s="166"/>
+    </row>
+    <row r="141" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C141" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="D140" s="102"/>
-      <c r="E140" s="103"/>
-      <c r="F140" s="108">
+      <c r="D141" s="165"/>
+      <c r="E141" s="166"/>
+      <c r="F141" s="167">
         <v>20240716</v>
       </c>
-      <c r="G140" s="109"/>
-      <c r="H140" s="109"/>
-      <c r="I140" s="110"/>
+      <c r="G141" s="168"/>
+      <c r="H141" s="168"/>
+      <c r="I141" s="169"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
+  <mergeCells count="102">
+    <mergeCell ref="B50:O50"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="B85:O85"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="C131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="C128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="C130:J130"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="B109:O109"/>
+    <mergeCell ref="B111:O111"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="C127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="B84:O84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="B82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B59:O59"/>
+    <mergeCell ref="B66:O66"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="A9:F9"/>
@@ -11904,210 +13104,96 @@
     <mergeCell ref="O2:R10"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="B59:O59"/>
-    <mergeCell ref="B66:O66"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="B82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="B84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="B108:O108"/>
-    <mergeCell ref="B110:O110"/>
-    <mergeCell ref="C125:J125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="B85:O85"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="C130:J130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="C127:J127"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="C128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:N33">
-    <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="64" operator="equal">
       <formula>4.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="163" priority="65" operator="equal">
+      <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="66" operator="equal">
+      <formula>2.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="67" operator="equal">
+      <formula>1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="68" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="69" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="70" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="71" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
-      <formula>1.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
-      <formula>2.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
-      <formula>3.5</formula>
+    <cfRule type="cellIs" dxfId="156" priority="72" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:N42">
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="55" operator="equal">
       <formula>4.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="56" operator="equal">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="57" operator="equal">
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="58" operator="equal">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="59" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="60" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="61" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="62" operator="equal">
       <formula>2</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94:N101">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
-      <formula>3.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
-      <formula>2.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
-      <formula>1.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
-      <formula>4.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="63" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113:N120">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>4.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>1.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>2.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:AC42">
-    <cfRule type="cellIs" dxfId="5" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="93" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="94" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="95" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="96" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12117,7 +13203,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="0" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12131,14 +13217,14 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>110</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:row>111</xdr:row>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12153,13 +13239,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12175,14 +13261,14 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>90</xdr:row>
+                    <xdr:row>91</xdr:row>
                     <xdr:rowOff>279400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>92</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:row>93</xdr:row>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12246,7 +13332,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>79</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </to>
@@ -12292,7 +13378,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12312,9 +13398,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
+                    <xdr:colOff>107950</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>292100</xdr:rowOff>
+                    <xdr:rowOff>298450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12336,7 +13422,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12358,7 +13444,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12380,7 +13466,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12402,7 +13488,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12424,7 +13510,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12446,7 +13532,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12468,7 +13554,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12490,7 +13576,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12512,7 +13598,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12534,7 +13620,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12556,7 +13642,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12578,7 +13664,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12600,7 +13686,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12708,7 +13794,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>80</xdr:row>
                     <xdr:rowOff>279400</xdr:rowOff>
                   </to>
@@ -12725,13 +13811,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>50800</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>317500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12747,13 +13833,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>121</xdr:row>
+                    <xdr:row>122</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12769,13 +13855,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>121</xdr:row>
+                    <xdr:row>122</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12791,14 +13877,36 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>120</xdr:row>
+                    <xdr:row>121</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>88900</xdr:colOff>
-                    <xdr:row>122</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:row>123</xdr:row>
+                    <xdr:rowOff>31750</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9249" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>84</xdr:row>
+                    <xdr:rowOff>266700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>86</xdr:row>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/services/limbless-app/static/resources/templates/library_prep/QUANTSEQ.xlsx
+++ b/services/limbless-app/static/resources/templates/library_prep/QUANTSEQ.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cemmat-my.sharepoint.com/personal/hriegler_cemm_at/Documents/Documents/GitHub/limbless-app/services/limbless-app/static/resources/templates/library_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{FA84E37E-DC61-E841-823B-F8596B3D28C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B302EE93-3DB0-4FAA-8657-C4A4B94C65A4}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{FA84E37E-DC61-E841-823B-F8596B3D28C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BC5159-9E4F-4031-AB4B-C7FB4108A0D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
     <sheet name="Quantseq" sheetId="34" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="162">
   <si>
     <t>RIN</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>Checklist 3’ mRNA-Seq V2 Library Pre Kit (Lexogen)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1705,6 +1708,234 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1714,238 +1945,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2371,13 +2374,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2436,13 +2439,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>101</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>103</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2505,13 +2508,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2578,7 +2581,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2639,13 +2642,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>260350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2704,15 +2707,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2773,13 +2776,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2840,13 +2843,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2905,15 +2908,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>298450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2974,13 +2977,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3041,13 +3044,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3108,13 +3111,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3175,13 +3178,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3242,13 +3245,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3309,13 +3312,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3376,13 +3379,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3443,13 +3446,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3510,13 +3513,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3577,13 +3580,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3644,13 +3647,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3711,13 +3714,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3839,13 +3842,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4174,13 +4177,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4239,13 +4242,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:rowOff>317500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>110</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4306,9 +4309,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4373,9 +4376,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -4446,9 +4449,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>123</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4515,7 +4518,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4872,35 +4875,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" style="94" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="94" customWidth="1"/>
-    <col min="5" max="7" width="13.42578125" style="94" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" style="94" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="94" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="94" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" style="94" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="94" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="95"/>
-    <col min="16" max="16" width="9.85546875" style="96" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="94" customWidth="1"/>
-    <col min="18" max="20" width="12.42578125" style="94" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="94" customWidth="1"/>
-    <col min="26" max="28" width="7.85546875" style="94" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="94"/>
+    <col min="1" max="1" width="12.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.453125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="94" customWidth="1"/>
+    <col min="5" max="7" width="13.453125" style="94" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" style="94" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" style="94" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="94" customWidth="1"/>
+    <col min="12" max="13" width="12.453125" style="94" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" style="94" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="95"/>
+    <col min="16" max="16" width="9.81640625" style="96" customWidth="1"/>
+    <col min="17" max="17" width="7.81640625" style="94" customWidth="1"/>
+    <col min="18" max="20" width="12.453125" style="94" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1796875" style="94" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" style="94" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.453125" style="94" customWidth="1"/>
+    <col min="26" max="28" width="7.81640625" style="94" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="94">
         <v>1</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="94">
         <v>2</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="94">
         <v>3</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="94">
         <v>4</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="94">
         <v>5</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="94">
         <v>6</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="94">
         <v>7</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="94">
         <v>8</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="94">
         <v>9</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="94">
         <v>10</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="94">
         <v>11</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="94">
         <v>12</v>
       </c>
@@ -5322,7 +5325,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="94">
         <v>13</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="94">
         <v>14</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="94">
         <v>15</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="94">
         <v>16</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="94">
         <v>17</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="94">
         <v>18</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="94">
         <v>19</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="94">
         <v>20</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="94">
         <v>21</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="94">
         <v>22</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="94">
         <v>23</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="94">
         <v>24</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="94">
         <v>25</v>
       </c>
@@ -5686,7 +5689,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="94">
         <v>26</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="94">
         <v>27</v>
       </c>
@@ -5742,7 +5745,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="94">
         <v>28</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="94">
         <v>29</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="94">
         <v>30</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="94">
         <v>31</v>
       </c>
@@ -5854,7 +5857,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="94">
         <v>32</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="94">
         <v>33</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="94">
         <v>34</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="94">
         <v>35</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="94">
         <v>36</v>
       </c>
@@ -5994,7 +5997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="94">
         <v>37</v>
       </c>
@@ -6022,7 +6025,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="94">
         <v>38</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="94">
         <v>39</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="94">
         <v>40</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="94">
         <v>41</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="94">
         <v>42</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="94">
         <v>43</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="94">
         <v>44</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="94">
         <v>45</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="94">
         <v>46</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="94">
         <v>47</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="94">
         <v>48</v>
       </c>
@@ -6330,7 +6333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="94">
         <v>49</v>
       </c>
@@ -6358,7 +6361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="94">
         <v>50</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="94">
         <v>51</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="94">
         <v>52</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="94">
         <v>53</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="94">
         <v>54</v>
       </c>
@@ -6498,7 +6501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="94">
         <v>55</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="94">
         <v>56</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="94">
         <v>57</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" s="94">
         <v>58</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="94">
         <v>59</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="94">
         <v>60</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" s="94">
         <v>61</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" s="94">
         <v>62</v>
       </c>
@@ -6722,7 +6725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" s="94">
         <v>63</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" s="94">
         <v>64</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" s="94">
         <v>65</v>
       </c>
@@ -6806,7 +6809,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" s="94">
         <v>66</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" s="94">
         <v>67</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" s="94">
         <v>68</v>
       </c>
@@ -6890,7 +6893,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" s="94">
         <v>69</v>
       </c>
@@ -6918,7 +6921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" s="94">
         <v>70</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" s="94">
         <v>71</v>
       </c>
@@ -6974,7 +6977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" s="94">
         <v>72</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" s="94">
         <v>73</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" s="94">
         <v>74</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" s="94">
         <v>75</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" s="94">
         <v>76</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" s="94">
         <v>77</v>
       </c>
@@ -7142,7 +7145,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" s="94">
         <v>78</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" s="94">
         <v>79</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" s="94">
         <v>80</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" s="94">
         <v>81</v>
       </c>
@@ -7254,7 +7257,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" s="94">
         <v>82</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" s="94">
         <v>83</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="94">
         <v>84</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" s="94">
         <v>85</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" s="94">
         <v>86</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" s="94">
         <v>87</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89" s="94">
         <v>88</v>
       </c>
@@ -7450,7 +7453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A90" s="94">
         <v>89</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A91" s="94">
         <v>90</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A92" s="94">
         <v>91</v>
       </c>
@@ -7534,7 +7537,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A93" s="94">
         <v>92</v>
       </c>
@@ -7562,7 +7565,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A94" s="94">
         <v>93</v>
       </c>
@@ -7590,7 +7593,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A95" s="94">
         <v>94</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A96" s="94">
         <v>95</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A97" s="94">
         <v>96</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB98" s="97"/>
     </row>
   </sheetData>
@@ -7723,216 +7726,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE895A9B-1F34-4976-B120-D3EE7AF75A58}">
   <dimension ref="A1:AK141"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P88" sqref="P88:Q88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="9" style="14" customWidth="1"/>
-    <col min="9" max="10" width="8.42578125" style="14" customWidth="1"/>
+    <col min="9" max="10" width="8.453125" style="14" customWidth="1"/>
     <col min="11" max="11" width="9" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="14" customWidth="1"/>
-    <col min="13" max="14" width="8.5703125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="14"/>
-    <col min="16" max="16" width="8.140625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" style="14" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="14" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="14" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="14" customWidth="1"/>
-    <col min="21" max="22" width="5.42578125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" style="14" customWidth="1"/>
-    <col min="24" max="25" width="5.85546875" style="14" customWidth="1"/>
-    <col min="26" max="27" width="6.42578125" style="14" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="14" customWidth="1"/>
-    <col min="30" max="31" width="8.85546875" style="14"/>
-    <col min="32" max="32" width="9.42578125" style="14" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="14"/>
+    <col min="12" max="12" width="10.453125" style="14" customWidth="1"/>
+    <col min="13" max="14" width="8.54296875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="14"/>
+    <col min="16" max="16" width="8.1796875" style="14" customWidth="1"/>
+    <col min="17" max="17" width="5.54296875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" style="14" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="14" customWidth="1"/>
+    <col min="21" max="22" width="5.453125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" style="14" customWidth="1"/>
+    <col min="24" max="25" width="5.81640625" style="14" customWidth="1"/>
+    <col min="26" max="27" width="6.453125" style="14" customWidth="1"/>
+    <col min="28" max="28" width="6.1796875" style="14" customWidth="1"/>
+    <col min="29" max="29" width="5.81640625" style="14" customWidth="1"/>
+    <col min="30" max="31" width="8.81640625" style="14"/>
+    <col min="32" max="32" width="9.453125" style="14" customWidth="1"/>
+    <col min="33" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
       <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="126" t="s">
+      <c r="O2" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-    </row>
-    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+    </row>
+    <row r="3" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-    </row>
-    <row r="4" spans="1:37" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+    </row>
+    <row r="4" spans="1:37" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-    </row>
-    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+    </row>
+    <row r="5" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
       <c r="AK5" s="18"/>
     </row>
-    <row r="6" spans="1:37" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+    <row r="6" spans="1:37" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
       <c r="K6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="17"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
       <c r="AK6" s="18"/>
     </row>
-    <row r="7" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="127" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="128"/>
+      <c r="K7" s="172"/>
       <c r="L7" s="17"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
       <c r="AK7" s="18"/>
     </row>
-    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
       <c r="K8" s="57"/>
       <c r="L8" s="58" t="s">
         <v>113</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
+        <v>161</v>
+      </c>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="168"/>
       <c r="AK8" s="18"/>
     </row>
-    <row r="9" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+    <row r="9" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
       <c r="K9" s="60"/>
       <c r="L9" s="61" t="s">
         <v>115</v>
@@ -7940,23 +7943,23 @@
       <c r="M9" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-    </row>
-    <row r="10" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+    </row>
+    <row r="10" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
       <c r="K10" s="60"/>
       <c r="L10" s="58" t="s">
         <v>116</v>
@@ -7964,23 +7967,23 @@
       <c r="M10" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-    </row>
-    <row r="11" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113" t="s">
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+    </row>
+    <row r="11" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
       <c r="K11" s="60"/>
       <c r="L11" s="63" t="s">
         <v>117</v>
@@ -7989,13 +7992,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+    <row r="12" spans="1:37" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="65"/>
       <c r="F12" s="19" t="b">
         <f>MOD(E12,8)=0</f>
@@ -8011,21 +8014,23 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
+    <row r="13" spans="1:37" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="66"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="66">
+        <v>12</v>
+      </c>
       <c r="F13" s="19" t="b">
         <f>MOD(E13,12)=0</f>
         <v>1</v>
       </c>
       <c r="G13" s="19">
         <f>ROUNDDOWN((E13/12),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19">
         <f>E13-G13*12</f>
@@ -8033,31 +8038,31 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="118" t="s">
+    <row r="14" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
-    </row>
-    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="162"/>
+    </row>
+    <row r="15" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21"/>
       <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="23" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="C16" s="24">
         <v>1</v>
@@ -8097,7 +8102,7 @@
       </c>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="25" t="s">
         <v>1</v>
@@ -8152,7 +8157,7 @@
       </c>
       <c r="O17" s="28"/>
     </row>
-    <row r="18" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="25" t="s">
         <v>2</v>
@@ -8207,7 +8212,7 @@
       </c>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="25" t="s">
         <v>3</v>
@@ -8262,7 +8267,7 @@
       </c>
       <c r="O19" s="28"/>
     </row>
-    <row r="20" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="25" t="s">
         <v>4</v>
@@ -8317,7 +8322,7 @@
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="25" t="s">
         <v>5</v>
@@ -8372,7 +8377,7 @@
       </c>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="25" t="s">
         <v>6</v>
@@ -8427,7 +8432,7 @@
       </c>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
       <c r="B23" s="25" t="s">
         <v>7</v>
@@ -8482,7 +8487,7 @@
       </c>
       <c r="O23" s="28"/>
     </row>
-    <row r="24" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="25" t="s">
         <v>8</v>
@@ -8537,7 +8542,7 @@
       </c>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>61</v>
       </c>
@@ -8593,7 +8598,7 @@
       <c r="AB25" s="54"/>
       <c r="AC25" s="28"/>
     </row>
-    <row r="26" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="25" t="s">
         <v>1</v>
       </c>
@@ -8660,7 +8665,7 @@
       <c r="AB26" s="54"/>
       <c r="AC26" s="28"/>
     </row>
-    <row r="27" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="25" t="s">
         <v>2</v>
       </c>
@@ -8727,7 +8732,7 @@
       <c r="AB27" s="54"/>
       <c r="AC27" s="28"/>
     </row>
-    <row r="28" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="25" t="s">
         <v>3</v>
       </c>
@@ -8794,7 +8799,7 @@
       <c r="AB28" s="54"/>
       <c r="AC28" s="28"/>
     </row>
-    <row r="29" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="25" t="s">
         <v>4</v>
       </c>
@@ -8861,7 +8866,7 @@
       <c r="AB29" s="54"/>
       <c r="AC29" s="28"/>
     </row>
-    <row r="30" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="25" t="s">
         <v>5</v>
       </c>
@@ -8928,7 +8933,7 @@
       <c r="AB30" s="54"/>
       <c r="AC30" s="28"/>
     </row>
-    <row r="31" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="25" t="s">
         <v>6</v>
       </c>
@@ -8995,7 +9000,7 @@
       <c r="AB31" s="54"/>
       <c r="AC31" s="28"/>
     </row>
-    <row r="32" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="25" t="s">
         <v>7</v>
       </c>
@@ -9062,7 +9067,7 @@
       <c r="AB32" s="54"/>
       <c r="AC32" s="28"/>
     </row>
-    <row r="33" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="25" t="s">
         <v>8</v>
       </c>
@@ -9129,7 +9134,7 @@
       <c r="AB33" s="54"/>
       <c r="AC33" s="28"/>
     </row>
-    <row r="34" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>119</v>
       </c>
@@ -9185,7 +9190,7 @@
       <c r="AB34" s="54"/>
       <c r="AC34" s="28"/>
     </row>
-    <row r="35" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="25" t="s">
         <v>1</v>
       </c>
@@ -9252,7 +9257,7 @@
       <c r="AB35" s="54"/>
       <c r="AC35" s="28"/>
     </row>
-    <row r="36" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="25" t="s">
         <v>2</v>
       </c>
@@ -9319,7 +9324,7 @@
       <c r="AB36" s="54"/>
       <c r="AC36" s="28"/>
     </row>
-    <row r="37" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="25" t="s">
         <v>3</v>
       </c>
@@ -9386,7 +9391,7 @@
       <c r="AB37" s="54"/>
       <c r="AC37" s="28"/>
     </row>
-    <row r="38" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="25" t="s">
         <v>4</v>
       </c>
@@ -9453,7 +9458,7 @@
       <c r="AB38" s="54"/>
       <c r="AC38" s="28"/>
     </row>
-    <row r="39" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -9520,7 +9525,7 @@
       <c r="AB39" s="54"/>
       <c r="AC39" s="28"/>
     </row>
-    <row r="40" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -9587,7 +9592,7 @@
       <c r="AB40" s="54"/>
       <c r="AC40" s="28"/>
     </row>
-    <row r="41" spans="1:29" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="25" t="s">
         <v>7</v>
       </c>
@@ -9654,7 +9659,7 @@
       <c r="AB41" s="54"/>
       <c r="AC41" s="28"/>
     </row>
-    <row r="42" spans="1:29" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="25" t="s">
         <v>8</v>
       </c>
@@ -9721,41 +9726,41 @@
       <c r="AB42" s="54"/>
       <c r="AC42" s="28"/>
     </row>
-    <row r="43" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="22"/>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="123"/>
-    </row>
-    <row r="44" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="165"/>
+    </row>
+    <row r="44" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="21"/>
       <c r="B44" s="13" t="str">
         <f>IF(ISNUMBER($E$12),IF($M$9="Yes",IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E13*D46/8*1.1)," µL of FS1 into each well of column 1 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D46*1.1)," µL of FS1 into first ",H12," wells and ",FIXED((G12)*D46*1.1)," µL into the other wells of MM plate column 1")), "Skip" ), IF($F$13=TRUE,CONCATENATE("Pipet ",FIXED($E$13*D46/12*1.1)," µL of FS1 into each well of row A of MM plate"),CONCATENATE("Pipet ",FIXED(($G$13+1)*D46*1.1)," µL of FS1 into first ",$H$13," wells and ",FIXED(($G$13)*D46*1.1)," µL into the other wells of MM plate row A")))</f>
-        <v>Pipet 0.00 µL of FS1 into each well of row A of MM plate</v>
+        <v>Pipet 5.50 µL of FS1 into each well of row A of MM plate</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="N44" s="124" t="str">
+      <c r="N44" s="166" t="str">
         <f>IF(M9="No","Skip this part",IF($M$9=$M$10,"Skip this only for low Input samples", " "))</f>
         <v>Skip this only for low Input samples</v>
       </c>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="21"/>
       <c r="B45" s="13" t="str">
         <f>IF($M$9="Yes", "Mix:", "Skip")</f>
@@ -9770,11 +9775,11 @@
       <c r="E45" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="N45" s="125"/>
+      <c r="N45" s="167"/>
       <c r="O45" s="28"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:29" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="22"/>
       <c r="B46" s="13"/>
       <c r="C46" s="32" t="s">
@@ -9786,10 +9791,10 @@
       <c r="E46" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="N46" s="125"/>
+      <c r="N46" s="167"/>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:29" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="22"/>
       <c r="B47" s="13"/>
       <c r="C47" s="35"/>
@@ -9802,10 +9807,10 @@
       <c r="F47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="125"/>
+      <c r="N47" s="167"/>
       <c r="O47" s="28"/>
     </row>
-    <row r="48" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="21"/>
       <c r="B48" s="13" t="str">
         <f>IF($M$9="Yes", "Incubate:", "Skip")</f>
@@ -9818,10 +9823,10 @@
       <c r="F48" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="N48" s="125"/>
+      <c r="N48" s="167"/>
       <c r="O48" s="28"/>
     </row>
-    <row r="49" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="22"/>
       <c r="B49" s="13"/>
       <c r="D49" s="38" t="s">
@@ -9831,30 +9836,30 @@
         <v>14</v>
       </c>
       <c r="F49" s="13"/>
-      <c r="N49" s="125"/>
+      <c r="N49" s="167"/>
       <c r="O49" s="28"/>
     </row>
-    <row r="50" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="21"/>
-      <c r="B50" s="162" t="str">
+      <c r="B50" s="173" t="str">
         <f>IF(ISNUMBER($E$13),IF($F$13=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED($E$13*D54/12*1.1)," µL of F into each well of row B of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(($G$13+1)*D54*1.1)," µL of F into first ",$H$13," wells and ",FIXED(($G$13)*D54*1.1)," µL into the other wells of MM plate row B")),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(E12*D54/8*1.1)," µL into each well of column 2 of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED((G12+1)*D54*1.1)," µL into first ",H12," wells and ",FIXED((G12)*D54*1.1)," µL into the other wells of MM plate column 2")))</f>
-        <v>Prepare Mastermix (F) according to the following table and pipet 0.00 µL into each well of column 2 of MM plate</v>
-      </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
-      <c r="E50" s="163"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="163"/>
-      <c r="J50" s="163"/>
-      <c r="K50" s="163"/>
-      <c r="L50" s="163"/>
-      <c r="M50" s="163"/>
-      <c r="N50" s="163"/>
-      <c r="O50" s="163"/>
-    </row>
-    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Prepare Mastermix (F) according to the following table and pipet 11.00 µL of F into each well of row B of MM plate</v>
+      </c>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
+      <c r="E50" s="174"/>
+      <c r="F50" s="174"/>
+      <c r="G50" s="174"/>
+      <c r="H50" s="174"/>
+      <c r="I50" s="174"/>
+      <c r="J50" s="174"/>
+      <c r="K50" s="174"/>
+      <c r="L50" s="174"/>
+      <c r="M50" s="174"/>
+      <c r="N50" s="174"/>
+      <c r="O50" s="174"/>
+    </row>
+    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="22"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -9863,22 +9868,22 @@
       </c>
       <c r="E51" s="55" t="str">
         <f>IF(ISNUMBER($E$13),CONCATENATE(" Volume for ",$E$13," samples"),CONCATENATE(" Volume for ",$E$12," samples"))</f>
-        <v xml:space="preserve"> Volume for  samples</v>
-      </c>
-      <c r="I51" s="107" t="s">
+        <v xml:space="preserve"> Volume for 12 samples</v>
+      </c>
+      <c r="I51" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="J51" s="108"/>
+      <c r="J51" s="149"/>
       <c r="K51" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="L51" s="109" t="s">
+      <c r="L51" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="M51" s="109"/>
+      <c r="M51" s="150"/>
       <c r="N51" s="71"/>
     </row>
-    <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="22"/>
       <c r="C52" s="29" t="s">
         <v>16</v>
@@ -9888,7 +9893,7 @@
       </c>
       <c r="E52" s="30">
         <f>IF(ISNUMBER($E$13),D52*$E$13*1.1,D52*$E$12*1.1)</f>
-        <v>0</v>
+        <v>125.4</v>
       </c>
       <c r="F52" s="56" t="s">
         <v>49</v>
@@ -9901,16 +9906,16 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "5","")</f>
         <v>5</v>
       </c>
-      <c r="L52" s="130">
+      <c r="L52" s="133">
         <f>IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K52*$E$13*1.1,""),K52*$E$12*1.1)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="131"/>
+        <v>66</v>
+      </c>
+      <c r="M52" s="134"/>
       <c r="N52" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="22"/>
       <c r="C53" s="32" t="s">
         <v>9</v>
@@ -9920,7 +9925,7 @@
       </c>
       <c r="E53" s="33">
         <f>IF(ISNUMBER($E$13),D53*$E$13*1.1,D53*$E$12*1.1)</f>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="F53" s="67" t="s">
         <v>49</v>
@@ -9933,16 +9938,16 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "9.5","")</f>
         <v>9.5</v>
       </c>
-      <c r="L53" s="130">
+      <c r="L53" s="133">
         <f t="shared" ref="L53:L54" si="0">IF(ISNUMBER($E$13),IF(OR($M$10="Yes",$M$11="Yes"),K53*$E$13*1.1,""),K53*$E$12*1.1)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="131"/>
+        <v>125.4</v>
+      </c>
+      <c r="M53" s="134"/>
       <c r="N53" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="22"/>
       <c r="C54" s="35"/>
       <c r="D54" s="36">
@@ -9950,7 +9955,7 @@
       </c>
       <c r="E54" s="40">
         <f>E52+E53</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F54" s="68" t="s">
         <v>49</v>
@@ -9966,16 +9971,16 @@
         <f>IF(OR($M$10="Yes",$M$11="Yes"), "0.5","")</f>
         <v>0.5</v>
       </c>
-      <c r="L54" s="130">
+      <c r="L54" s="133">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="131"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="M54" s="134"/>
       <c r="N54" s="77" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="21"/>
       <c r="B55" s="13" t="s">
         <v>51</v>
@@ -9988,22 +9993,22 @@
         <f>SUM(K52:K54)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="132">
+      <c r="L55" s="135">
         <f>SUM(L52:L54)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="133"/>
+        <v>198</v>
+      </c>
+      <c r="M55" s="136"/>
       <c r="N55" s="80" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="41"/>
       <c r="B56" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="21"/>
       <c r="B57" s="42" t="s">
         <v>48</v>
@@ -10017,7 +10022,7 @@
         <v>Incubate the low/ultralow input samples for 15 min or 1 hr at 42°C</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="22"/>
       <c r="D58" s="38" t="s">
         <v>22</v>
@@ -10026,33 +10031,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
-      <c r="B59" s="134" t="s">
+      <c r="B59" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
-      <c r="J59" s="135"/>
-      <c r="K59" s="135"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
-      <c r="N59" s="135"/>
-      <c r="O59" s="136"/>
-    </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="138"/>
+      <c r="L59" s="138"/>
+      <c r="M59" s="138"/>
+      <c r="N59" s="138"/>
+      <c r="O59" s="139"/>
+    </row>
+    <row r="60" spans="1:15" s="13" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="44"/>
       <c r="B60" s="13" t="str">
         <f>IF(ISNUMBER($E$13),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D62/8*1.1)," µL of RS into each well of row C of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D62*1.1)," µL of RS into first ",H13," wells and ",FIXED((G13)*D62*1.1)," µL into the other wells of MM plate row C")),IF($F$12=TRUE,CONCATENATE("Pipet ",FIXED($E$12*D62/8*1.1)," µL of RS into each well of column 3 of MM plate"),CONCATENATE("Pipet ",FIXED(($G$12+1)*D62*1.1)," µL of RS into first ",H12," wells and ",FIXED(($G$12)*D62*1.1)," µL into the other wells of MM plate column 3")))</f>
-        <v>Pipet 0.00 µL of RS into each well of column 3 of MM plate</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Pipet 8.25 µL of RS into each well of row C of MM plate</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="21"/>
       <c r="B61" s="13" t="s">
         <v>47</v>
@@ -10068,10 +10073,10 @@
       </c>
       <c r="H61" s="20" t="str">
         <f>IF($M$8="Yes", "Thaw USS at 37°C","Thaw SS1 at 37°C")</f>
-        <v>Thaw USS at 37°C</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Thaw SS1 at 37°C</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="22"/>
       <c r="C62" s="32" t="s">
         <v>21</v>
@@ -10083,7 +10088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="22"/>
       <c r="C63" s="35"/>
       <c r="D63" s="36">
@@ -10096,7 +10101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="21"/>
       <c r="B64" s="13" t="s">
         <v>53</v>
@@ -10111,7 +10116,7 @@
         <v>Incubate: 95°C/5min for ULTRALOW</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="22"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -10122,30 +10127,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="22"/>
-      <c r="B66" s="137" t="s">
+      <c r="B66" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="138"/>
-      <c r="F66" s="138"/>
-      <c r="G66" s="138"/>
-      <c r="H66" s="138"/>
-      <c r="I66" s="138"/>
-      <c r="J66" s="138"/>
-      <c r="K66" s="138"/>
-      <c r="L66" s="138"/>
-      <c r="M66" s="138"/>
-      <c r="N66" s="138"/>
-      <c r="O66" s="139"/>
-    </row>
-    <row r="67" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="141"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="141"/>
+      <c r="I66" s="141"/>
+      <c r="J66" s="141"/>
+      <c r="K66" s="141"/>
+      <c r="L66" s="141"/>
+      <c r="M66" s="141"/>
+      <c r="N66" s="141"/>
+      <c r="O66" s="142"/>
+    </row>
+    <row r="67" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="21"/>
       <c r="B67" s="53" t="str">
         <f>IF($M$8="Yes", "Thaw USS at 37°C","Thaw SS1 at 37°C")</f>
-        <v>Thaw USS at 37°C</v>
+        <v>Thaw SS1 at 37°C</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -10153,14 +10158,14 @@
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
     </row>
-    <row r="68" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="21"/>
       <c r="B68" s="13" t="str">
         <f>IF(ISNUMBER($E$13),IF(M8="No",IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D70/12*1.1)," µL of SS1 into each well of row D of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D70*1.1)," µL of SS1 into first ",H13," wells and ",FIXED((G13)*D70*1.1)," µL into the other wells of MM plate Row D")),IF(F13=TRUE,CONCATENATE("Pipet ",FIXED(E13*D70/12*1.1)," µL of USS into each well of row D of MM plate"),CONCATENATE("Pipet ",FIXED((G13+1)*D70*1.1)," µL of USS into first ",H13," wells and ",FIXED((G13)*D70*1.1)," µL into the other wells of MM plate row D"))),IF(M8="No",IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E12*D70/8*1.1)," µL of SS1 into each well of column 4 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D70*1.1)," µL of SS1 into first ",H13," wells and ",FIXED((G12)*D70*1.1)," µL into the other wells of MM plate column 4")),IF(F12=TRUE,CONCATENATE("Pipet ",FIXED(E12*D70/8*1.1)," µL of USS into each well of column 4 of MM plate"),CONCATENATE("Pipet ",FIXED((G12+1)*D70*1.1)," µL of USS into first ",H13," wells and ",FIXED((G12)*D70*1.1)," µL into the other wells of MM plate column 4"))))</f>
-        <v>Pipet 0.00 µL of USS into each well of column 4 of MM plate</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Pipet 11.00 µL of SS1 into each well of row D of MM plate</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C69" s="30" t="s">
         <v>54</v>
       </c>
@@ -10171,11 +10176,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="22"/>
       <c r="C70" s="32" t="str">
         <f>IF($M$8="Yes", "USS","SS1")</f>
-        <v>USS</v>
+        <v>SS1</v>
       </c>
       <c r="D70" s="33">
         <v>10</v>
@@ -10184,7 +10189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="22"/>
       <c r="C71" s="35"/>
       <c r="D71" s="36">
@@ -10197,7 +10202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="21"/>
       <c r="B72" s="13" t="s">
         <v>48</v>
@@ -10206,13 +10211,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="22"/>
       <c r="D73" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="22"/>
       <c r="D74" s="43" t="s">
         <v>25</v>
@@ -10221,14 +10226,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="21"/>
       <c r="B75" s="13" t="str">
         <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED(E12*D78/8*1.1)," µL of S into each well of column 5 of MM plate"),CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED((G12+1)*D78*1.1)," µL of S into first ",H12," wells and ",FIXED((G12)*D78*1.1)," µL into the other wells of MM plate column 5")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED(E13*D78/12*1.1)," µL of S into each well of row E of MM plate"),CONCATENATE("Prepare Mastermix (S) according to the following table and pipet ",FIXED((G13+1)*D78*1.1)," µL of S into first ",H13," wells and ",FIXED((G13)*D78*1.1)," µL into the other wells of MM plate row E")))</f>
-        <v>Prepare Mastermix (S) according to the following table and pipet 0.00 µL of S into each well of row E of MM plate</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>Prepare Mastermix (S) according to the following table and pipet 5.50 µL of S into each well of row E of MM plate</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="21"/>
       <c r="B76" s="13" t="s">
         <v>47</v>
@@ -10241,18 +10246,18 @@
       </c>
       <c r="E76" s="31">
         <f>IF(ISNUMBER($E$13),D76*$E$13*1.1,D76*$E$12*1.1)</f>
-        <v>0</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="F76" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I76" s="140" t="s">
+      <c r="I76" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-    </row>
-    <row r="77" spans="1:21" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="143"/>
+      <c r="K76" s="143"/>
+    </row>
+    <row r="77" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C77" s="32" t="s">
         <v>10</v>
       </c>
@@ -10261,13 +10266,13 @@
       </c>
       <c r="E77" s="34">
         <f>D77*$E$13*1.1</f>
-        <v>0</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="F77" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="22"/>
       <c r="C78" s="35"/>
       <c r="D78" s="36">
@@ -10275,7 +10280,7 @@
       </c>
       <c r="E78" s="37">
         <f>SUM(E76:E77)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F78" s="85" t="s">
         <v>49</v>
@@ -10284,7 +10289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="21"/>
       <c r="B79" s="13" t="s">
         <v>48</v>
@@ -10292,88 +10297,88 @@
       <c r="D79" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="P79" s="141" t="s">
+      <c r="P79" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="Q79" s="141"/>
-    </row>
-    <row r="80" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q79" s="144"/>
+    </row>
+    <row r="80" spans="1:21" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80"/>
-      <c r="B80" s="142" t="s">
+      <c r="B80" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="143"/>
-      <c r="F80" s="143"/>
-      <c r="G80" s="143"/>
-      <c r="H80" s="143"/>
-      <c r="I80" s="143"/>
-      <c r="J80" s="143"/>
-      <c r="K80" s="143"/>
-      <c r="L80" s="143"/>
-      <c r="M80" s="143"/>
-      <c r="N80" s="143"/>
-      <c r="O80" s="144"/>
-      <c r="P80" s="129" t="s">
+      <c r="C80" s="146"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="146"/>
+      <c r="I80" s="146"/>
+      <c r="J80" s="146"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="146"/>
+      <c r="M80" s="146"/>
+      <c r="N80" s="146"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="Q80" s="129"/>
-      <c r="R80" s="129" t="s">
+      <c r="Q80" s="119"/>
+      <c r="R80" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="S80" s="129"/>
-      <c r="T80" s="129" t="s">
+      <c r="S80" s="119"/>
+      <c r="T80" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="U80" s="129"/>
-    </row>
-    <row r="81" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U80" s="119"/>
+    </row>
+    <row r="81" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="21"/>
       <c r="B81" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="P81" s="145" t="s">
+      <c r="P81" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="Q81" s="145"/>
-      <c r="R81" s="145">
+      <c r="Q81" s="118"/>
+      <c r="R81" s="118">
         <v>7</v>
       </c>
-      <c r="S81" s="145"/>
-      <c r="T81" s="129"/>
-      <c r="U81" s="129"/>
-    </row>
-    <row r="82" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S81" s="118"/>
+      <c r="T81" s="119"/>
+      <c r="U81" s="119"/>
+    </row>
+    <row r="82" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="21"/>
-      <c r="B82" s="150" t="s">
+      <c r="B82" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="151"/>
-      <c r="D82" s="151"/>
-      <c r="E82" s="151"/>
-      <c r="F82" s="151"/>
-      <c r="G82" s="151"/>
-      <c r="H82" s="151"/>
-      <c r="I82" s="151"/>
-      <c r="J82" s="151"/>
-      <c r="K82" s="151"/>
-      <c r="L82" s="151"/>
-      <c r="M82" s="151"/>
-      <c r="N82" s="151"/>
-      <c r="O82" s="152"/>
-      <c r="P82" s="145" t="s">
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="131"/>
+      <c r="L82" s="131"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="131"/>
+      <c r="O82" s="132"/>
+      <c r="P82" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="Q82" s="145"/>
-      <c r="R82" s="145">
+      <c r="Q82" s="118"/>
+      <c r="R82" s="118">
         <v>1</v>
       </c>
-      <c r="S82" s="145"/>
-      <c r="T82" s="129"/>
-      <c r="U82" s="129"/>
-    </row>
-    <row r="83" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S82" s="118"/>
+      <c r="T82" s="119"/>
+      <c r="U82" s="119"/>
+    </row>
+    <row r="83" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="22"/>
       <c r="B83" s="14" t="s">
         <v>128</v>
@@ -10382,125 +10387,125 @@
         <v>62</v>
       </c>
       <c r="M83" s="48"/>
-      <c r="P83" s="145" t="s">
+      <c r="P83" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="Q83" s="145"/>
-      <c r="R83" s="145">
-        <v>5</v>
-      </c>
-      <c r="S83" s="145"/>
-      <c r="T83" s="129"/>
-      <c r="U83" s="129"/>
-    </row>
-    <row r="84" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q83" s="118"/>
+      <c r="R83" s="118">
+        <v>5</v>
+      </c>
+      <c r="S83" s="118"/>
+      <c r="T83" s="119"/>
+      <c r="U83" s="119"/>
+    </row>
+    <row r="84" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="22"/>
-      <c r="B84" s="146" t="s">
+      <c r="B84" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="147"/>
-      <c r="D84" s="147"/>
-      <c r="E84" s="147"/>
-      <c r="F84" s="147"/>
-      <c r="G84" s="147"/>
-      <c r="H84" s="147"/>
-      <c r="I84" s="147"/>
-      <c r="J84" s="147"/>
-      <c r="K84" s="147"/>
-      <c r="L84" s="147"/>
-      <c r="M84" s="147"/>
-      <c r="N84" s="147"/>
-      <c r="O84" s="148"/>
-      <c r="P84" s="149" t="s">
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="127"/>
+      <c r="I84" s="127"/>
+      <c r="J84" s="127"/>
+      <c r="K84" s="127"/>
+      <c r="L84" s="127"/>
+      <c r="M84" s="127"/>
+      <c r="N84" s="127"/>
+      <c r="O84" s="128"/>
+      <c r="P84" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="Q84" s="145"/>
-      <c r="R84" s="145">
-        <v>5</v>
-      </c>
-      <c r="S84" s="145"/>
-      <c r="T84" s="129"/>
-      <c r="U84" s="129"/>
-    </row>
-    <row r="85" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q84" s="118"/>
+      <c r="R84" s="118">
+        <v>5</v>
+      </c>
+      <c r="S84" s="118"/>
+      <c r="T84" s="119"/>
+      <c r="U84" s="119"/>
+    </row>
+    <row r="85" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="21"/>
-      <c r="B85" s="166" t="str">
+      <c r="B85" s="123" t="str">
         <f>IF(ISNUMBER($E$12),IF(F12=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E12*(D89+D90)/8*1.1)," µL of P into each well of column 6 of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G12+1)*(D89+D90)*1.1)," µL of P into first ",H12," wells and ",FIXED((G12)*(D89+D90)*1.1)," µL into the other wells of MM plate column 6")),IF(F13=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E13*(D89+D90)/8*1.1)," µL of P into each well of row F of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G13+1)*(D89+D90)*1.1)," µL of P into first ",H13," wells and ",FIXED((G13)*(D89+D90)*1.1)," µL into the other wells of MM plate row F")) )</f>
-        <v>Prepare Mastermix (P) according to the following table and pipet 0.00 µL of P into each well of row F of MM plate</v>
-      </c>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
-      <c r="F85" s="167"/>
-      <c r="G85" s="167"/>
-      <c r="H85" s="167"/>
-      <c r="I85" s="167"/>
-      <c r="J85" s="167"/>
-      <c r="K85" s="167"/>
-      <c r="L85" s="167"/>
-      <c r="M85" s="167"/>
-      <c r="N85" s="167"/>
-      <c r="O85" s="168"/>
-      <c r="P85" s="154" t="s">
+        <v>Prepare Mastermix (P) according to the following table and pipet 6.60 µL of P into each well of row F of MM plate</v>
+      </c>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="124"/>
+      <c r="J85" s="124"/>
+      <c r="K85" s="124"/>
+      <c r="L85" s="124"/>
+      <c r="M85" s="124"/>
+      <c r="N85" s="124"/>
+      <c r="O85" s="125"/>
+      <c r="P85" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="Q85" s="154"/>
-      <c r="R85" s="145">
+      <c r="Q85" s="120"/>
+      <c r="R85" s="118">
         <v>0.03</v>
       </c>
-      <c r="S85" s="145"/>
-      <c r="T85" s="129"/>
-      <c r="U85" s="129"/>
-    </row>
-    <row r="86" spans="1:28" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S85" s="118"/>
+      <c r="T85" s="119"/>
+      <c r="U85" s="119"/>
+    </row>
+    <row r="86" spans="1:28" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="21"/>
-      <c r="B86" s="164" t="s">
+      <c r="B86" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="165"/>
-      <c r="D86" s="165"/>
-      <c r="E86" s="165"/>
-      <c r="F86" s="165"/>
-      <c r="G86" s="165"/>
-      <c r="H86" s="165"/>
-      <c r="I86" s="165"/>
-      <c r="J86" s="165"/>
-      <c r="K86" s="165"/>
-      <c r="L86" s="165"/>
-      <c r="M86" s="165"/>
-      <c r="N86" s="165"/>
-      <c r="O86" s="165"/>
-      <c r="P86" s="154" t="s">
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="122"/>
+      <c r="G86" s="122"/>
+      <c r="H86" s="122"/>
+      <c r="I86" s="122"/>
+      <c r="J86" s="122"/>
+      <c r="K86" s="122"/>
+      <c r="L86" s="122"/>
+      <c r="M86" s="122"/>
+      <c r="N86" s="122"/>
+      <c r="O86" s="122"/>
+      <c r="P86" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="Q86" s="154"/>
-      <c r="R86" s="145">
+      <c r="Q86" s="120"/>
+      <c r="R86" s="118">
         <v>15.27</v>
       </c>
-      <c r="S86" s="145"/>
-      <c r="T86" s="129"/>
-      <c r="U86" s="129"/>
-    </row>
-    <row r="87" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S86" s="118"/>
+      <c r="T86" s="119"/>
+      <c r="U86" s="119"/>
+    </row>
+    <row r="87" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="22"/>
       <c r="B87" s="86"/>
       <c r="E87" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P87" s="145" t="s">
+      <c r="P87" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Q87" s="145"/>
-      <c r="R87" s="145">
+      <c r="Q87" s="118"/>
+      <c r="R87" s="118">
         <v>1.7</v>
       </c>
-      <c r="S87" s="145"/>
-      <c r="T87" s="129" t="s">
+      <c r="S87" s="118"/>
+      <c r="T87" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="U87" s="129"/>
-    </row>
-    <row r="88" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U87" s="119"/>
+    </row>
+    <row r="88" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="22"/>
       <c r="C88" s="49" t="s">
         <v>30</v>
@@ -10512,18 +10517,18 @@
       <c r="F88" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="P88" s="145" t="s">
+      <c r="P88" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="Q88" s="145"/>
-      <c r="R88" s="145">
+      <c r="Q88" s="118"/>
+      <c r="R88" s="118">
         <v>33.299999999999997</v>
       </c>
-      <c r="S88" s="145"/>
-      <c r="T88" s="129"/>
-      <c r="U88" s="129"/>
-    </row>
-    <row r="89" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S88" s="118"/>
+      <c r="T88" s="119"/>
+      <c r="U88" s="119"/>
+    </row>
+    <row r="89" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="22"/>
       <c r="C89" s="29" t="s">
         <v>37</v>
@@ -10533,13 +10538,13 @@
       </c>
       <c r="E89" s="50">
         <f>D89*E13*1.1</f>
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="F89" s="56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="22"/>
       <c r="C90" s="29" t="s">
         <v>38</v>
@@ -10549,13 +10554,13 @@
       </c>
       <c r="E90" s="30">
         <f>D90*E13*1.1</f>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="F90" s="56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="22"/>
       <c r="C91" s="32" t="s">
         <v>39</v>
@@ -10568,7 +10573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="22"/>
       <c r="C92" s="35"/>
       <c r="D92" s="36">
@@ -10577,13 +10582,13 @@
       </c>
       <c r="E92" s="40">
         <f>SUM(E89:E90)</f>
-        <v>0</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="F92" s="85" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="51"/>
       <c r="B93" s="42" t="s">
         <v>60</v>
@@ -10607,7 +10612,7 @@
       <c r="AA93"/>
       <c r="AB93"/>
     </row>
-    <row r="94" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="24">
@@ -10661,7 +10666,7 @@
       <c r="AA94"/>
       <c r="AB94"/>
     </row>
-    <row r="95" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="22"/>
       <c r="B95" s="25" t="s">
         <v>1</v>
@@ -10729,7 +10734,7 @@
       <c r="AA95"/>
       <c r="AB95"/>
     </row>
-    <row r="96" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="25" t="s">
         <v>2</v>
       </c>
@@ -10796,7 +10801,7 @@
       <c r="AA96"/>
       <c r="AB96"/>
     </row>
-    <row r="97" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="25" t="s">
         <v>3</v>
       </c>
@@ -10863,7 +10868,7 @@
       <c r="AA97"/>
       <c r="AB97"/>
     </row>
-    <row r="98" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="25" t="s">
         <v>4</v>
       </c>
@@ -10930,7 +10935,7 @@
       <c r="AA98"/>
       <c r="AB98"/>
     </row>
-    <row r="99" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="25" t="s">
         <v>5</v>
       </c>
@@ -10997,7 +11002,7 @@
       <c r="AA99"/>
       <c r="AB99"/>
     </row>
-    <row r="100" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="25" t="s">
         <v>6</v>
       </c>
@@ -11064,7 +11069,7 @@
       <c r="AA100"/>
       <c r="AB100"/>
     </row>
-    <row r="101" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="25" t="s">
         <v>7</v>
       </c>
@@ -11131,7 +11136,7 @@
       <c r="AA101"/>
       <c r="AB101"/>
     </row>
-    <row r="102" spans="1:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B102" s="25" t="s">
         <v>8</v>
       </c>
@@ -11198,7 +11203,7 @@
       <c r="AA102"/>
       <c r="AB102"/>
     </row>
-    <row r="103" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="21"/>
       <c r="B103" s="13" t="s">
         <v>58</v>
@@ -11221,61 +11226,61 @@
       <c r="AA103"/>
       <c r="AB103"/>
     </row>
-    <row r="104" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="22"/>
       <c r="F104" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="G104" s="171" t="str">
+      <c r="G104" s="101" t="str">
         <f>IF(M83&gt;0,CONCATENATE(M83," cycles"),"___cycles")</f>
         <v>___cycles</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="22"/>
       <c r="F105" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="G105" s="172"/>
-    </row>
-    <row r="106" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="102"/>
+    </row>
+    <row r="106" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="22"/>
       <c r="F106" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="G106" s="173"/>
-    </row>
-    <row r="107" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="103"/>
+    </row>
+    <row r="107" spans="1:28" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="22"/>
       <c r="F107" s="38" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F108" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109"/>
-      <c r="B109" s="174" t="s">
+      <c r="B109" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="C109" s="175"/>
-      <c r="D109" s="175"/>
-      <c r="E109" s="175"/>
-      <c r="F109" s="175"/>
-      <c r="G109" s="175"/>
-      <c r="H109" s="175"/>
-      <c r="I109" s="175"/>
-      <c r="J109" s="175"/>
-      <c r="K109" s="175"/>
-      <c r="L109" s="175"/>
-      <c r="M109" s="175"/>
-      <c r="N109" s="175"/>
-      <c r="O109" s="176"/>
-    </row>
-    <row r="110" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="105"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="105"/>
+      <c r="G109" s="105"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="105"/>
+      <c r="K109" s="105"/>
+      <c r="L109" s="105"/>
+      <c r="M109" s="105"/>
+      <c r="N109" s="105"/>
+      <c r="O109" s="106"/>
+    </row>
+    <row r="110" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="21"/>
       <c r="B110" s="13" t="s">
         <v>139</v>
@@ -11283,31 +11288,31 @@
       <c r="F110" s="43"/>
       <c r="K110" s="90"/>
     </row>
-    <row r="111" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="91"/>
-      <c r="B111" s="177" t="s">
+      <c r="B111" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C111" s="178"/>
-      <c r="D111" s="178"/>
-      <c r="E111" s="178"/>
-      <c r="F111" s="178"/>
-      <c r="G111" s="178"/>
-      <c r="H111" s="178"/>
-      <c r="I111" s="178"/>
-      <c r="J111" s="178"/>
-      <c r="K111" s="178"/>
-      <c r="L111" s="178"/>
-      <c r="M111" s="178"/>
-      <c r="N111" s="178"/>
-      <c r="O111" s="179"/>
-    </row>
-    <row r="112" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="108"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="108"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="108"/>
+      <c r="K111" s="108"/>
+      <c r="L111" s="108"/>
+      <c r="M111" s="108"/>
+      <c r="N111" s="108"/>
+      <c r="O111" s="109"/>
+    </row>
+    <row r="112" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="23"/>
       <c r="C113" s="24">
         <v>1</v>
@@ -11346,7 +11351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="25" t="s">
         <v>1</v>
       </c>
@@ -11399,7 +11404,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="25" t="s">
         <v>2</v>
       </c>
@@ -11452,7 +11457,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="25" t="s">
         <v>3</v>
       </c>
@@ -11505,7 +11510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="25" t="s">
         <v>4</v>
       </c>
@@ -11558,7 +11563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="25" t="s">
         <v>5</v>
       </c>
@@ -11611,7 +11616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="25" t="s">
         <v>6</v>
       </c>
@@ -11664,7 +11669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="25" t="s">
         <v>7</v>
       </c>
@@ -11717,7 +11722,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B121" s="25" t="s">
         <v>8</v>
       </c>
@@ -11770,7 +11775,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="44"/>
       <c r="B122" s="92" t="s">
         <v>140</v>
@@ -11778,7 +11783,7 @@
       <c r="C122" s="13"/>
       <c r="E122" s="93"/>
     </row>
-    <row r="123" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="44"/>
       <c r="B123" s="13" t="s">
         <v>152</v>
@@ -11787,7 +11792,7 @@
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="42"/>
       <c r="B124" s="13"/>
       <c r="C124" s="92" t="s">
@@ -11800,7 +11805,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="42"/>
       <c r="B125" s="13"/>
       <c r="C125" s="92" t="s">
@@ -11813,286 +11818,226 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="42"/>
-      <c r="C126" s="169" t="s">
+      <c r="C126" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="D126" s="169"/>
-      <c r="E126" s="169"/>
-      <c r="F126" s="169"/>
-      <c r="G126" s="169"/>
-      <c r="H126" s="169"/>
-      <c r="I126" s="169"/>
-      <c r="J126" s="169"/>
-      <c r="K126" s="153" t="s">
+      <c r="D126" s="99"/>
+      <c r="E126" s="99"/>
+      <c r="F126" s="99"/>
+      <c r="G126" s="99"/>
+      <c r="H126" s="99"/>
+      <c r="I126" s="99"/>
+      <c r="J126" s="99"/>
+      <c r="K126" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="L126" s="153"/>
-    </row>
-    <row r="127" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L126" s="100"/>
+    </row>
+    <row r="127" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="42"/>
-      <c r="C127" s="169" t="s">
+      <c r="C127" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="D127" s="169"/>
-      <c r="E127" s="169"/>
-      <c r="F127" s="169"/>
-      <c r="G127" s="169"/>
-      <c r="H127" s="169"/>
-      <c r="I127" s="169"/>
-      <c r="J127" s="169"/>
-      <c r="K127" s="153">
+      <c r="D127" s="99"/>
+      <c r="E127" s="99"/>
+      <c r="F127" s="99"/>
+      <c r="G127" s="99"/>
+      <c r="H127" s="99"/>
+      <c r="I127" s="99"/>
+      <c r="J127" s="99"/>
+      <c r="K127" s="100">
         <v>191.96</v>
       </c>
-      <c r="L127" s="153"/>
-    </row>
-    <row r="128" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L127" s="100"/>
+    </row>
+    <row r="128" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="42"/>
-      <c r="C128" s="169" t="s">
+      <c r="C128" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="D128" s="169"/>
-      <c r="E128" s="169"/>
-      <c r="F128" s="169"/>
-      <c r="G128" s="169"/>
-      <c r="H128" s="169"/>
-      <c r="I128" s="169"/>
-      <c r="J128" s="169"/>
-      <c r="K128" s="153">
+      <c r="D128" s="99"/>
+      <c r="E128" s="99"/>
+      <c r="F128" s="99"/>
+      <c r="G128" s="99"/>
+      <c r="H128" s="99"/>
+      <c r="I128" s="99"/>
+      <c r="J128" s="99"/>
+      <c r="K128" s="100">
         <v>194.96</v>
       </c>
-      <c r="L128" s="153"/>
-    </row>
-    <row r="129" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L128" s="100"/>
+    </row>
+    <row r="129" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="42"/>
-      <c r="C129" s="169" t="s">
+      <c r="C129" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="D129" s="169"/>
-      <c r="E129" s="169"/>
-      <c r="F129" s="169"/>
-      <c r="G129" s="169"/>
-      <c r="H129" s="169"/>
-      <c r="I129" s="169"/>
-      <c r="J129" s="169"/>
-      <c r="K129" s="153">
+      <c r="D129" s="99"/>
+      <c r="E129" s="99"/>
+      <c r="F129" s="99"/>
+      <c r="G129" s="99"/>
+      <c r="H129" s="99"/>
+      <c r="I129" s="99"/>
+      <c r="J129" s="99"/>
+      <c r="K129" s="100">
         <v>195.96</v>
       </c>
-      <c r="L129" s="153"/>
-    </row>
-    <row r="130" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L129" s="100"/>
+    </row>
+    <row r="130" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="42"/>
-      <c r="C130" s="169" t="s">
+      <c r="C130" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="D130" s="169"/>
-      <c r="E130" s="169"/>
-      <c r="F130" s="169"/>
-      <c r="G130" s="169"/>
-      <c r="H130" s="169"/>
-      <c r="I130" s="169"/>
-      <c r="J130" s="169"/>
-      <c r="K130" s="153">
+      <c r="D130" s="99"/>
+      <c r="E130" s="99"/>
+      <c r="F130" s="99"/>
+      <c r="G130" s="99"/>
+      <c r="H130" s="99"/>
+      <c r="I130" s="99"/>
+      <c r="J130" s="99"/>
+      <c r="K130" s="100">
         <v>196.96</v>
       </c>
-      <c r="L130" s="153"/>
-    </row>
-    <row r="131" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L130" s="100"/>
+    </row>
+    <row r="131" spans="1:12" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="42"/>
-      <c r="C131" s="169" t="s">
+      <c r="C131" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="D131" s="169"/>
-      <c r="E131" s="169"/>
-      <c r="F131" s="169"/>
-      <c r="G131" s="169"/>
-      <c r="H131" s="169"/>
-      <c r="I131" s="169"/>
-      <c r="J131" s="169"/>
-      <c r="K131" s="153" t="str">
+      <c r="D131" s="99"/>
+      <c r="E131" s="99"/>
+      <c r="F131" s="99"/>
+      <c r="G131" s="99"/>
+      <c r="H131" s="99"/>
+      <c r="I131" s="99"/>
+      <c r="J131" s="99"/>
+      <c r="K131" s="100" t="str">
         <f>"081.96"</f>
         <v>081.96</v>
       </c>
-      <c r="L131" s="153"/>
-    </row>
-    <row r="134" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="170" t="s">
+      <c r="L131" s="100"/>
+    </row>
+    <row r="134" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C134" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="D134" s="170"/>
-      <c r="E134" s="170"/>
-      <c r="F134" s="155" t="s">
+      <c r="D134" s="117"/>
+      <c r="E134" s="117"/>
+      <c r="F134" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="G134" s="156"/>
-      <c r="H134" s="156"/>
-      <c r="I134" s="157"/>
-    </row>
-    <row r="135" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="161" t="s">
+      <c r="G134" s="111"/>
+      <c r="H134" s="111"/>
+      <c r="I134" s="112"/>
+    </row>
+    <row r="135" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C135" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D135" s="161"/>
-      <c r="E135" s="161"/>
-      <c r="F135" s="155" t="s">
+      <c r="D135" s="116"/>
+      <c r="E135" s="116"/>
+      <c r="F135" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="G135" s="156"/>
-      <c r="H135" s="156"/>
-      <c r="I135" s="157"/>
-    </row>
-    <row r="136" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="161" t="s">
+      <c r="G135" s="111"/>
+      <c r="H135" s="111"/>
+      <c r="I135" s="112"/>
+    </row>
+    <row r="136" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="D136" s="161"/>
-      <c r="E136" s="161"/>
-      <c r="F136" s="155" t="s">
+      <c r="D136" s="116"/>
+      <c r="E136" s="116"/>
+      <c r="F136" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="G136" s="156"/>
-      <c r="H136" s="156"/>
-      <c r="I136" s="157"/>
-    </row>
-    <row r="137" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="155" t="s">
+      <c r="G136" s="111"/>
+      <c r="H136" s="111"/>
+      <c r="I136" s="112"/>
+    </row>
+    <row r="137" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C137" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="D137" s="156"/>
-      <c r="E137" s="157"/>
-      <c r="F137" s="155" t="s">
+      <c r="D137" s="111"/>
+      <c r="E137" s="112"/>
+      <c r="F137" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="G137" s="156"/>
-      <c r="H137" s="156"/>
-      <c r="I137" s="157"/>
-    </row>
-    <row r="138" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="155" t="s">
+      <c r="G137" s="111"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="112"/>
+    </row>
+    <row r="138" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C138" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="D138" s="156"/>
-      <c r="E138" s="157"/>
-      <c r="F138" s="155" t="s">
+      <c r="D138" s="111"/>
+      <c r="E138" s="112"/>
+      <c r="F138" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G138" s="156"/>
-      <c r="H138" s="156"/>
-      <c r="I138" s="157"/>
-    </row>
-    <row r="139" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="155" t="s">
+      <c r="G138" s="111"/>
+      <c r="H138" s="111"/>
+      <c r="I138" s="112"/>
+    </row>
+    <row r="139" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C139" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="D139" s="156"/>
-      <c r="E139" s="157"/>
-      <c r="F139" s="155" t="s">
+      <c r="D139" s="111"/>
+      <c r="E139" s="112"/>
+      <c r="F139" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="G139" s="156"/>
-      <c r="H139" s="156"/>
-      <c r="I139" s="157"/>
-    </row>
-    <row r="140" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="155" t="s">
+      <c r="G139" s="111"/>
+      <c r="H139" s="111"/>
+      <c r="I139" s="112"/>
+    </row>
+    <row r="140" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C140" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="D140" s="156"/>
-      <c r="E140" s="157"/>
-      <c r="F140" s="155" t="s">
+      <c r="D140" s="111"/>
+      <c r="E140" s="112"/>
+      <c r="F140" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="G140" s="156"/>
-      <c r="H140" s="156"/>
-      <c r="I140" s="157"/>
-    </row>
-    <row r="141" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="155" t="s">
+      <c r="G140" s="111"/>
+      <c r="H140" s="111"/>
+      <c r="I140" s="112"/>
+    </row>
+    <row r="141" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C141" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="D141" s="156"/>
-      <c r="E141" s="157"/>
-      <c r="F141" s="158">
+      <c r="D141" s="111"/>
+      <c r="E141" s="112"/>
+      <c r="F141" s="113">
         <v>20240716</v>
       </c>
-      <c r="G141" s="159"/>
-      <c r="H141" s="159"/>
-      <c r="I141" s="160"/>
+      <c r="G141" s="114"/>
+      <c r="H141" s="114"/>
+      <c r="I141" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="C128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="C129:J129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="C130:J130"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="B109:O109"/>
-    <mergeCell ref="B111:O111"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="C127:J127"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="C131:J131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="B86:O86"/>
-    <mergeCell ref="B85:O85"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="B84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="B82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="B59:O59"/>
-    <mergeCell ref="B66:O66"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="A9:F9"/>
@@ -12113,17 +12058,77 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B50:O50"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="B82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B59:O59"/>
+    <mergeCell ref="B66:O66"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="B85:O85"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="B84:O84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="C131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="C128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="C130:J130"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="B109:O109"/>
+    <mergeCell ref="B111:O111"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="C127:J127"/>
+    <mergeCell ref="K127:L127"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:N33">
     <cfRule type="cellIs" dxfId="23" priority="64" operator="equal">
@@ -12203,7 +12208,7 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M11" xr:uid="{319D1AB4-3C0B-4017-BC56-892EC389ADA5}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
@@ -12224,13 +12229,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>110</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12244,13 +12249,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>101</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>103</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12268,13 +12273,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>93</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12296,7 +12301,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12312,13 +12317,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>260350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12332,15 +12337,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>77</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12356,13 +12361,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12378,13 +12383,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12398,15 +12403,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>107950</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>295275</xdr:rowOff>
+                    <xdr:rowOff>298450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12422,13 +12427,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12444,13 +12449,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12466,13 +12471,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12488,13 +12493,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12510,13 +12515,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12532,13 +12537,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12554,13 +12559,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12576,13 +12581,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12598,13 +12603,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12620,13 +12625,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12642,13 +12647,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12664,13 +12669,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12686,13 +12691,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12796,13 +12801,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>69850</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:rowOff>279400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12816,13 +12821,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>108</xdr:row>
-                    <xdr:rowOff>314325</xdr:rowOff>
+                    <xdr:rowOff>317500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>107950</xdr:colOff>
                     <xdr:row>110</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12838,9 +12843,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -12860,9 +12865,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>120</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -12888,9 +12893,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>123</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12912,7 +12917,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
